--- a/data/scheduling_DNN/predict/0.9/result26.xlsx
+++ b/data/scheduling_DNN/predict/0.9/result26.xlsx
@@ -570,10 +570,10 @@
         <v>1.038054943084717</v>
       </c>
       <c r="V2" t="n">
-        <v>0.5247882604598999</v>
+        <v>0.4024457633495331</v>
       </c>
       <c r="W2" t="n">
-        <v>0.2634426951408386</v>
+        <v>0.403999000787735</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -641,10 +641,10 @@
         <v>1.005362033843994</v>
       </c>
       <c r="V3" t="n">
-        <v>0.5262220501899719</v>
+        <v>0.8882940411567688</v>
       </c>
       <c r="W3" t="n">
-        <v>0.229575127363205</v>
+        <v>0.01370491459965706</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -712,10 +712,10 @@
         <v>0.8896949291229248</v>
       </c>
       <c r="V4" t="n">
-        <v>0.490833193063736</v>
+        <v>0.5207895636558533</v>
       </c>
       <c r="W4" t="n">
-        <v>0.1590906828641891</v>
+        <v>0.1360911726951599</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -783,10 +783,10 @@
         <v>0.8672130107879639</v>
       </c>
       <c r="V5" t="n">
-        <v>0.3516814708709717</v>
+        <v>0.8558128476142883</v>
       </c>
       <c r="W5" t="n">
-        <v>0.2657727599143982</v>
+        <v>0.0001299637224292383</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -854,10 +854,10 @@
         <v>0.8661949634552002</v>
       </c>
       <c r="V6" t="n">
-        <v>0.6926920413970947</v>
+        <v>0.5023294687271118</v>
       </c>
       <c r="W6" t="n">
-        <v>0.03010326437652111</v>
+        <v>0.1323980987071991</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -925,10 +925,10 @@
         <v>0.8650298118591309</v>
       </c>
       <c r="V7" t="n">
-        <v>0.417663037776947</v>
+        <v>0.4004709422588348</v>
       </c>
       <c r="W7" t="n">
-        <v>0.2001370340585709</v>
+        <v>0.2158149480819702</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -996,10 +996,10 @@
         <v>0.8643310070037842</v>
       </c>
       <c r="V8" t="n">
-        <v>0.5823945999145508</v>
+        <v>0.8665342926979065</v>
       </c>
       <c r="W8" t="n">
-        <v>0.07948813587427139</v>
+        <v>4.854467988479882e-06</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1067,10 +1067,10 @@
         <v>0.872783899307251</v>
       </c>
       <c r="V9" t="n">
-        <v>0.5050196051597595</v>
+        <v>0.4023184776306152</v>
       </c>
       <c r="W9" t="n">
-        <v>0.1352505832910538</v>
+        <v>0.2213377058506012</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1138,10 +1138,10 @@
         <v>0.8697309494018555</v>
       </c>
       <c r="V10" t="n">
-        <v>0.3507649004459381</v>
+        <v>0.8901991844177246</v>
       </c>
       <c r="W10" t="n">
-        <v>0.2693257927894592</v>
+        <v>0.0004189486498944461</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1209,10 +1209,10 @@
         <v>0.8710019588470459</v>
       </c>
       <c r="V11" t="n">
-        <v>0.4176304936408997</v>
+        <v>0.8634263277053833</v>
       </c>
       <c r="W11" t="n">
-        <v>0.2055456787347794</v>
+        <v>5.739018888561986e-05</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1280,10 +1280,10 @@
         <v>0.859788179397583</v>
       </c>
       <c r="V12" t="n">
-        <v>0.9755766987800598</v>
+        <v>0.4000055491924286</v>
       </c>
       <c r="W12" t="n">
-        <v>0.01340698078274727</v>
+        <v>0.2114000618457794</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1351,10 +1351,10 @@
         <v>0.9174680709838867</v>
       </c>
       <c r="V13" t="n">
-        <v>0.3518537282943726</v>
+        <v>0.8724157214164734</v>
       </c>
       <c r="W13" t="n">
-        <v>0.3199195861816406</v>
+        <v>0.002029714174568653</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1422,10 +1422,10 @@
         <v>0.8719279766082764</v>
       </c>
       <c r="V14" t="n">
-        <v>0.8339731693267822</v>
+        <v>0.5270863771438599</v>
       </c>
       <c r="W14" t="n">
-        <v>0.001440567430108786</v>
+        <v>0.1189157292246819</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1493,10 +1493,10 @@
         <v>0.8938601016998291</v>
       </c>
       <c r="V15" t="n">
-        <v>0.6533820629119873</v>
+        <v>0.4000100791454315</v>
       </c>
       <c r="W15" t="n">
-        <v>0.05782968550920486</v>
+        <v>0.2438878417015076</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1564,10 +1564,10 @@
         <v>0.8811089992523193</v>
       </c>
       <c r="V16" t="n">
-        <v>0.3507513999938965</v>
+        <v>0.5249626040458679</v>
       </c>
       <c r="W16" t="n">
-        <v>0.2812791764736176</v>
+        <v>0.1268402487039566</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1635,10 +1635,10 @@
         <v>0.9653270244598389</v>
       </c>
       <c r="V17" t="n">
-        <v>0.975210964679718</v>
+        <v>0.5191121697425842</v>
       </c>
       <c r="W17" t="n">
-        <v>9.769227472133934e-05</v>
+        <v>0.1991076916456223</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1706,10 +1706,10 @@
         <v>0.8880939483642578</v>
       </c>
       <c r="V18" t="n">
-        <v>0.4634853303432465</v>
+        <v>0.8655211329460144</v>
       </c>
       <c r="W18" t="n">
-        <v>0.180292472243309</v>
+        <v>0.0005095319938845932</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1777,10 +1777,10 @@
         <v>0.9049811363220215</v>
       </c>
       <c r="V19" t="n">
-        <v>0.8046363592147827</v>
+        <v>0.8730137944221497</v>
       </c>
       <c r="W19" t="n">
-        <v>0.01006907410919666</v>
+        <v>0.001021910924464464</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1848,10 +1848,10 @@
         <v>0.8870100975036621</v>
       </c>
       <c r="V20" t="n">
-        <v>0.5873388648033142</v>
+        <v>0.5179497003555298</v>
       </c>
       <c r="W20" t="n">
-        <v>0.08980284631252289</v>
+        <v>0.1362055838108063</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1919,10 +1919,10 @@
         <v>0.9321691989898682</v>
       </c>
       <c r="V21" t="n">
-        <v>0.417653352022171</v>
+        <v>0.5102304816246033</v>
       </c>
       <c r="W21" t="n">
-        <v>0.2647265791893005</v>
+        <v>0.1780322790145874</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -1990,10 +1990,10 @@
         <v>0.5311059951782227</v>
       </c>
       <c r="V22" t="n">
-        <v>0.5762905478477478</v>
+        <v>0.4010618031024933</v>
       </c>
       <c r="W22" t="n">
-        <v>0.002041643718257546</v>
+        <v>0.01691149175167084</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2061,10 +2061,10 @@
         <v>0.5254261493682861</v>
       </c>
       <c r="V23" t="n">
-        <v>0.5908746719360352</v>
+        <v>0.873551070690155</v>
       </c>
       <c r="W23" t="n">
-        <v>0.004283509217202663</v>
+        <v>0.1211909577250481</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2132,10 +2132,10 @@
         <v>0.5233919620513916</v>
       </c>
       <c r="V24" t="n">
-        <v>0.5048985481262207</v>
+        <v>0.4003881216049194</v>
       </c>
       <c r="W24" t="n">
-        <v>0.0003420063585508615</v>
+        <v>0.01512994430959225</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2203,10 +2203,10 @@
         <v>0.5329890251159668</v>
       </c>
       <c r="V25" t="n">
-        <v>0.490329772233963</v>
+        <v>0.4027126431465149</v>
       </c>
       <c r="W25" t="n">
-        <v>0.001819811877794564</v>
+        <v>0.01697193644940853</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2274,10 +2274,10 @@
         <v>0.5776100158691406</v>
       </c>
       <c r="V26" t="n">
-        <v>0.5058352947235107</v>
+        <v>0.5271642208099365</v>
       </c>
       <c r="W26" t="n">
-        <v>0.005151610821485519</v>
+        <v>0.002544778166338801</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2345,10 +2345,10 @@
         <v>0.5196490287780762</v>
       </c>
       <c r="V27" t="n">
-        <v>0.3720027506351471</v>
+        <v>0.869053065776825</v>
       </c>
       <c r="W27" t="n">
-        <v>0.02179942280054092</v>
+        <v>0.1220831796526909</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2416,10 +2416,10 @@
         <v>0.5191922187805176</v>
       </c>
       <c r="V28" t="n">
-        <v>0.6538190245628357</v>
+        <v>0.8743295669555664</v>
       </c>
       <c r="W28" t="n">
-        <v>0.01812437735497952</v>
+        <v>0.1261225342750549</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2487,10 +2487,10 @@
         <v>0.5221049785614014</v>
       </c>
       <c r="V29" t="n">
-        <v>0.5050956606864929</v>
+        <v>0.515669047832489</v>
       </c>
       <c r="W29" t="n">
-        <v>0.0002893169003073126</v>
+        <v>4.142120451433584e-05</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2558,10 +2558,10 @@
         <v>0.536506175994873</v>
       </c>
       <c r="V30" t="n">
-        <v>0.3719484806060791</v>
+        <v>0.8835974335670471</v>
       </c>
       <c r="W30" t="n">
-        <v>0.02707923576235771</v>
+        <v>0.1204723417758942</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2629,10 +2629,10 @@
         <v>0.5156848430633545</v>
       </c>
       <c r="V31" t="n">
-        <v>0.3794727325439453</v>
+        <v>0.8739244341850281</v>
       </c>
       <c r="W31" t="n">
-        <v>0.01855373941361904</v>
+        <v>0.1283356100320816</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2700,10 +2700,10 @@
         <v>0.5538492202758789</v>
       </c>
       <c r="V32" t="n">
-        <v>0.6531110405921936</v>
+        <v>0.5177916288375854</v>
       </c>
       <c r="W32" t="n">
-        <v>0.009852908551692963</v>
+        <v>0.001300149946473539</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2771,10 +2771,10 @@
         <v>0.5185189247131348</v>
       </c>
       <c r="V33" t="n">
-        <v>0.6928427815437317</v>
+        <v>0.5164124369621277</v>
       </c>
       <c r="W33" t="n">
-        <v>0.03038880787789822</v>
+        <v>4.437290499481605e-06</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2842,10 +2842,10 @@
         <v>0.5180239677429199</v>
       </c>
       <c r="V34" t="n">
-        <v>0.655465304851532</v>
+        <v>0.399185448884964</v>
       </c>
       <c r="W34" t="n">
-        <v>0.01889012195169926</v>
+        <v>0.01412259321659803</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2913,10 +2913,10 @@
         <v>0.5295071601867676</v>
       </c>
       <c r="V35" t="n">
-        <v>0.3507598340511322</v>
+        <v>0.3990360498428345</v>
       </c>
       <c r="W35" t="n">
-        <v>0.03195060789585114</v>
+        <v>0.01702271029353142</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -2984,10 +2984,10 @@
         <v>0.5413119792938232</v>
       </c>
       <c r="V36" t="n">
-        <v>0.5245612859725952</v>
+        <v>0.8663954138755798</v>
       </c>
       <c r="W36" t="n">
-        <v>0.000280585722066462</v>
+        <v>0.1056792363524437</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3055,10 +3055,10 @@
         <v>0.5806999206542969</v>
       </c>
       <c r="V37" t="n">
-        <v>0.3720992505550385</v>
+        <v>0.8736988306045532</v>
       </c>
       <c r="W37" t="n">
-        <v>0.04351424053311348</v>
+        <v>0.0858483612537384</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3126,10 +3126,10 @@
         <v>0.530972957611084</v>
       </c>
       <c r="V38" t="n">
-        <v>0.4908800721168518</v>
+        <v>0.8724002242088318</v>
       </c>
       <c r="W38" t="n">
-        <v>0.001607439480721951</v>
+        <v>0.1165725812315941</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3197,10 +3197,10 @@
         <v>0.5232861042022705</v>
       </c>
       <c r="V39" t="n">
-        <v>0.8023541569709778</v>
+        <v>0.3999086916446686</v>
       </c>
       <c r="W39" t="n">
-        <v>0.07787897437810898</v>
+        <v>0.01522198598831892</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3268,10 +3268,10 @@
         <v>0.5136921405792236</v>
       </c>
       <c r="V40" t="n">
-        <v>0.5947228074073792</v>
+        <v>0.401003897190094</v>
       </c>
       <c r="W40" t="n">
-        <v>0.006565968971699476</v>
+        <v>0.0126986401155591</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3339,10 +3339,10 @@
         <v>0.5196199417114258</v>
       </c>
       <c r="V41" t="n">
-        <v>0.3507409393787384</v>
+        <v>0.88213711977005</v>
       </c>
       <c r="W41" t="n">
-        <v>0.02852011658251286</v>
+        <v>0.1314187049865723</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3410,10 +3410,10 @@
         <v>0.4109408855438232</v>
       </c>
       <c r="V42" t="n">
-        <v>0.3720975518226624</v>
+        <v>0.3990214467048645</v>
       </c>
       <c r="W42" t="n">
-        <v>0.001508804620243609</v>
+        <v>0.0001420730259269476</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3481,10 +3481,10 @@
         <v>0.4230740070343018</v>
       </c>
       <c r="V43" t="n">
-        <v>0.4176599979400635</v>
+        <v>0.5088542103767395</v>
       </c>
       <c r="W43" t="n">
-        <v>2.931149356300011e-05</v>
+        <v>0.007358243223279715</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3552,10 +3552,10 @@
         <v>0.3879730701446533</v>
       </c>
       <c r="V44" t="n">
-        <v>0.838257908821106</v>
+        <v>0.8775954842567444</v>
       </c>
       <c r="W44" t="n">
-        <v>0.2027564346790314</v>
+        <v>0.239730104804039</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3623,10 +3623,10 @@
         <v>0.3914089202880859</v>
       </c>
       <c r="V45" t="n">
-        <v>0.3783480226993561</v>
+        <v>0.5179925560951233</v>
       </c>
       <c r="W45" t="n">
-        <v>0.0001705870527075604</v>
+        <v>0.0160234160721302</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -3694,10 +3694,10 @@
         <v>0.38749098777771</v>
       </c>
       <c r="V46" t="n">
-        <v>0.5762282013893127</v>
+        <v>0.5162296295166016</v>
       </c>
       <c r="W46" t="n">
-        <v>0.03562173619866371</v>
+        <v>0.01657363772392273</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -3765,10 +3765,10 @@
         <v>0.4112300872802734</v>
       </c>
       <c r="V47" t="n">
-        <v>0.5762007236480713</v>
+        <v>0.5280529260635376</v>
       </c>
       <c r="W47" t="n">
-        <v>0.02721531130373478</v>
+        <v>0.01364757586270571</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -3836,10 +3836,10 @@
         <v>0.3883669376373291</v>
       </c>
       <c r="V48" t="n">
-        <v>0.8381872177124023</v>
+        <v>0.4004763662815094</v>
       </c>
       <c r="W48" t="n">
-        <v>0.2023382782936096</v>
+        <v>0.0001466382673243061</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -3907,10 +3907,10 @@
         <v>0.3907198905944824</v>
       </c>
       <c r="V49" t="n">
-        <v>0.4174875020980835</v>
+        <v>0.8702129125595093</v>
       </c>
       <c r="W49" t="n">
-        <v>0.0007165050483308733</v>
+        <v>0.2299135625362396</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -3978,10 +3978,10 @@
         <v>0.3894729614257812</v>
       </c>
       <c r="V50" t="n">
-        <v>0.6928392648696899</v>
+        <v>0.3997972905635834</v>
       </c>
       <c r="W50" t="n">
-        <v>0.09203111380338669</v>
+        <v>0.0001065917749656364</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -4049,10 +4049,10 @@
         <v>0.394287109375</v>
       </c>
       <c r="V51" t="n">
-        <v>0.3518496155738831</v>
+        <v>0.5323121547698975</v>
       </c>
       <c r="W51" t="n">
-        <v>0.001800940837711096</v>
+        <v>0.01905091293156147</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -4120,10 +4120,10 @@
         <v>0.3914408683776855</v>
       </c>
       <c r="V52" t="n">
-        <v>0.5245877504348755</v>
+        <v>0.8758314847946167</v>
       </c>
       <c r="W52" t="n">
-        <v>0.01772809214890003</v>
+        <v>0.2346342653036118</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -4191,10 +4191,10 @@
         <v>0.388200044631958</v>
       </c>
       <c r="V53" t="n">
-        <v>0.6507607698440552</v>
+        <v>0.5266474485397339</v>
       </c>
       <c r="W53" t="n">
-        <v>0.06893813610076904</v>
+        <v>0.01916768401861191</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -4262,10 +4262,10 @@
         <v>0.3909101486206055</v>
       </c>
       <c r="V54" t="n">
-        <v>0.8031194806098938</v>
+        <v>0.523099422454834</v>
       </c>
       <c r="W54" t="n">
-        <v>0.1699165403842926</v>
+        <v>0.01747400499880314</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -4333,10 +4333,10 @@
         <v>0.4127328395843506</v>
       </c>
       <c r="V55" t="n">
-        <v>0.6542560458183289</v>
+        <v>0.531115710735321</v>
       </c>
       <c r="W55" t="n">
-        <v>0.05833346024155617</v>
+        <v>0.01401450391858816</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -4404,10 +4404,10 @@
         <v>0.3881230354309082</v>
       </c>
       <c r="V56" t="n">
-        <v>0.8386415839195251</v>
+        <v>0.4004083573818207</v>
       </c>
       <c r="W56" t="n">
-        <v>0.2029669582843781</v>
+        <v>0.0001509291323600337</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -4475,10 +4475,10 @@
         <v>0.3881998062133789</v>
       </c>
       <c r="V57" t="n">
-        <v>0.5245808959007263</v>
+        <v>0.5236954092979431</v>
       </c>
       <c r="W57" t="n">
-        <v>0.01859980076551437</v>
+        <v>0.01835905760526657</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -4546,10 +4546,10 @@
         <v>0.3889720439910889</v>
       </c>
       <c r="V58" t="n">
-        <v>0.4175422191619873</v>
+        <v>0.3990587294101715</v>
       </c>
       <c r="W58" t="n">
-        <v>0.0008162549347616732</v>
+        <v>0.000101741221442353</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -4617,10 +4617,10 @@
         <v>0.3899860382080078</v>
       </c>
       <c r="V59" t="n">
-        <v>0.5042588710784912</v>
+        <v>0.5652912259101868</v>
       </c>
       <c r="W59" t="n">
-        <v>0.01305828057229519</v>
+        <v>0.03073190897703171</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -4688,10 +4688,10 @@
         <v>0.3852028846740723</v>
       </c>
       <c r="V60" t="n">
-        <v>0.3507492542266846</v>
+        <v>0.5215954184532166</v>
       </c>
       <c r="W60" t="n">
-        <v>0.001187052694149315</v>
+        <v>0.01860292255878448</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -4759,10 +4759,10 @@
         <v>0.4450869560241699</v>
       </c>
       <c r="V61" t="n">
-        <v>0.3786694407463074</v>
+        <v>0.879269003868103</v>
       </c>
       <c r="W61" t="n">
-        <v>0.00441128620877862</v>
+        <v>0.1885140538215637</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -4830,10 +4830,10 @@
         <v>0.8725321292877197</v>
       </c>
       <c r="V62" t="n">
-        <v>0.4614620208740234</v>
+        <v>0.51035076379776</v>
       </c>
       <c r="W62" t="n">
-        <v>0.1689786314964294</v>
+        <v>0.1311753392219543</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -4901,10 +4901,10 @@
         <v>0.8704440593719482</v>
       </c>
       <c r="V63" t="n">
-        <v>0.3514944016933441</v>
+        <v>0.3999201655387878</v>
       </c>
       <c r="W63" t="n">
-        <v>0.2693087160587311</v>
+        <v>0.2213927358388901</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -4972,10 +4972,10 @@
         <v>0.8643620014190674</v>
       </c>
       <c r="V64" t="n">
-        <v>0.490370512008667</v>
+        <v>0.4024585783481598</v>
       </c>
       <c r="W64" t="n">
-        <v>0.1398696303367615</v>
+        <v>0.213354766368866</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -5043,10 +5043,10 @@
         <v>0.9168641567230225</v>
       </c>
       <c r="V65" t="n">
-        <v>0.5762016177177429</v>
+        <v>0.5226291418075562</v>
       </c>
       <c r="W65" t="n">
-        <v>0.1160509660840034</v>
+        <v>0.1554212421178818</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -5114,10 +5114,10 @@
         <v>0.8650810718536377</v>
       </c>
       <c r="V66" t="n">
-        <v>0.653571605682373</v>
+        <v>0.400452196598053</v>
       </c>
       <c r="W66" t="n">
-        <v>0.04473625496029854</v>
+        <v>0.2158799916505814</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -5185,10 +5185,10 @@
         <v>0.8593599796295166</v>
       </c>
       <c r="V67" t="n">
-        <v>0.4637985229492188</v>
+        <v>0.3990541696548462</v>
       </c>
       <c r="W67" t="n">
-        <v>0.1564688682556152</v>
+        <v>0.2118814438581467</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -5256,10 +5256,10 @@
         <v>0.867455005645752</v>
       </c>
       <c r="V68" t="n">
-        <v>0.5243822336196899</v>
+        <v>0.5163633823394775</v>
       </c>
       <c r="W68" t="n">
-        <v>0.1176989302039146</v>
+        <v>0.1232653260231018</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -5327,10 +5327,10 @@
         <v>0.9173638820648193</v>
       </c>
       <c r="V69" t="n">
-        <v>0.4638583362102509</v>
+        <v>0.5160261988639832</v>
       </c>
       <c r="W69" t="n">
-        <v>0.2056672871112823</v>
+        <v>0.1610719412565231</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -5398,10 +5398,10 @@
         <v>0.8599610328674316</v>
       </c>
       <c r="V70" t="n">
-        <v>0.4638231992721558</v>
+        <v>0.8651053905487061</v>
       </c>
       <c r="W70" t="n">
-        <v>0.1569251865148544</v>
+        <v>2.646441680553835e-05</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -5469,10 +5469,10 @@
         <v>0.8620281219482422</v>
       </c>
       <c r="V71" t="n">
-        <v>0.3783542811870575</v>
+        <v>0.8775633573532104</v>
       </c>
       <c r="W71" t="n">
-        <v>0.233940377831459</v>
+        <v>0.0002413435431662947</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -5540,10 +5540,10 @@
         <v>0.8656129837036133</v>
       </c>
       <c r="V72" t="n">
-        <v>0.3515170216560364</v>
+        <v>0.4009754955768585</v>
       </c>
       <c r="W72" t="n">
-        <v>0.2642946541309357</v>
+        <v>0.2158879935741425</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -5611,10 +5611,10 @@
         <v>0.9109210968017578</v>
       </c>
       <c r="V73" t="n">
-        <v>0.5037472248077393</v>
+        <v>0.5251367688179016</v>
       </c>
       <c r="W73" t="n">
-        <v>0.1657905578613281</v>
+        <v>0.1488295495510101</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -5682,10 +5682,10 @@
         <v>0.8684518337249756</v>
       </c>
       <c r="V74" t="n">
-        <v>0.6521576642990112</v>
+        <v>0.8650341033935547</v>
       </c>
       <c r="W74" t="n">
-        <v>0.04678316786885262</v>
+        <v>1.168088056147099e-05</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -5753,10 +5753,10 @@
         <v>0.8619759082794189</v>
       </c>
       <c r="V75" t="n">
-        <v>0.5248144865036011</v>
+        <v>0.8669204115867615</v>
       </c>
       <c r="W75" t="n">
-        <v>0.1136778220534325</v>
+        <v>2.444811252644286e-05</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -5824,10 +5824,10 @@
         <v>0.8704941272735596</v>
       </c>
       <c r="V76" t="n">
-        <v>0.371780127286911</v>
+        <v>0.5267307162284851</v>
       </c>
       <c r="W76" t="n">
-        <v>0.2487156540155411</v>
+        <v>0.118173286318779</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -5895,10 +5895,10 @@
         <v>0.9223849773406982</v>
       </c>
       <c r="V77" t="n">
-        <v>0.6992341279983521</v>
+        <v>0.3990499973297119</v>
       </c>
       <c r="W77" t="n">
-        <v>0.04979630187153816</v>
+        <v>0.2738794982433319</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -5966,10 +5966,10 @@
         <v>0.8620650768280029</v>
       </c>
       <c r="V78" t="n">
-        <v>0.9760575294494629</v>
+        <v>0.39999058842659</v>
       </c>
       <c r="W78" t="n">
-        <v>0.01299427915364504</v>
+        <v>0.2135128378868103</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -6037,10 +6037,10 @@
         <v>0.8583550453186035</v>
       </c>
       <c r="V79" t="n">
-        <v>0.9757341742515564</v>
+        <v>0.5209274888038635</v>
       </c>
       <c r="W79" t="n">
-        <v>0.01377785950899124</v>
+        <v>0.1138573586940765</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -6108,10 +6108,10 @@
         <v>0.8574569225311279</v>
       </c>
       <c r="V80" t="n">
-        <v>0.4904916286468506</v>
+        <v>0.8767291307449341</v>
       </c>
       <c r="W80" t="n">
-        <v>0.1346635222434998</v>
+        <v>0.0003714180202223361</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -6179,10 +6179,10 @@
         <v>0.909649133682251</v>
       </c>
       <c r="V81" t="n">
-        <v>0.3507504463195801</v>
+        <v>0.4010083377361298</v>
       </c>
       <c r="W81" t="n">
-        <v>0.3123677372932434</v>
+        <v>0.25871542096138</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -6250,10 +6250,10 @@
         <v>0.5617918968200684</v>
       </c>
       <c r="V82" t="n">
-        <v>0.9760792851448059</v>
+        <v>0.8756064772605896</v>
       </c>
       <c r="W82" t="n">
-        <v>0.1716340333223343</v>
+        <v>0.09847959131002426</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -6321,10 +6321,10 @@
         <v>0.5696160793304443</v>
       </c>
       <c r="V83" t="n">
-        <v>0.3720111846923828</v>
+        <v>0.8645576238632202</v>
       </c>
       <c r="W83" t="n">
-        <v>0.03904769569635391</v>
+        <v>0.08699051290750504</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -6392,10 +6392,10 @@
         <v>0.5143921375274658</v>
       </c>
       <c r="V84" t="n">
-        <v>0.4907905161380768</v>
+        <v>0.3999035060405731</v>
       </c>
       <c r="W84" t="n">
-        <v>0.0005570365465246141</v>
+        <v>0.01310764718800783</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -6463,10 +6463,10 @@
         <v>0.5340540409088135</v>
       </c>
       <c r="V85" t="n">
-        <v>0.5248074531555176</v>
+        <v>0.5225116014480591</v>
       </c>
       <c r="W85" t="n">
-        <v>8.549938502255827e-05</v>
+        <v>0.0001332279061898589</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -6534,10 +6534,10 @@
         <v>0.5678441524505615</v>
       </c>
       <c r="V86" t="n">
-        <v>0.3507759571075439</v>
+        <v>0.526347279548645</v>
       </c>
       <c r="W86" t="n">
-        <v>0.04711860045790672</v>
+        <v>0.001721990411169827</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -6605,10 +6605,10 @@
         <v>0.5165019035339355</v>
       </c>
       <c r="V87" t="n">
-        <v>0.4908333420753479</v>
+        <v>0.4023926854133606</v>
       </c>
       <c r="W87" t="n">
-        <v>0.0006588750402443111</v>
+        <v>0.01302091404795647</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -6676,10 +6676,10 @@
         <v>0.5155718326568604</v>
       </c>
       <c r="V88" t="n">
-        <v>0.5251024961471558</v>
+        <v>0.8744401335716248</v>
       </c>
       <c r="W88" t="n">
-        <v>9.083354962058365e-05</v>
+        <v>0.1287864595651627</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -6747,10 +6747,10 @@
         <v>0.5178980827331543</v>
       </c>
       <c r="V89" t="n">
-        <v>0.6992434859275818</v>
+        <v>0.3999942243099213</v>
       </c>
       <c r="W89" t="n">
-        <v>0.03288615494966507</v>
+        <v>0.01390132028609514</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -6818,10 +6818,10 @@
         <v>0.5153250694274902</v>
       </c>
       <c r="V90" t="n">
-        <v>0.4908617734909058</v>
+        <v>0.8605683445930481</v>
       </c>
       <c r="W90" t="n">
-        <v>0.0005984528688713908</v>
+        <v>0.1191929206252098</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -6889,10 +6889,10 @@
         <v>0.5193648338317871</v>
       </c>
       <c r="V91" t="n">
-        <v>0.4904197454452515</v>
+        <v>0.4023281037807465</v>
       </c>
       <c r="W91" t="n">
-        <v>0.00083781813737005</v>
+        <v>0.01369759626686573</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -6960,10 +6960,10 @@
         <v>0.519636869430542</v>
       </c>
       <c r="V92" t="n">
-        <v>0.5760207772254944</v>
+        <v>0.8821567296981812</v>
       </c>
       <c r="W92" t="n">
-        <v>0.00317914504557848</v>
+        <v>0.1314206421375275</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -7031,10 +7031,10 @@
         <v>0.5147991180419922</v>
       </c>
       <c r="V93" t="n">
-        <v>0.3895606100559235</v>
+        <v>0.8867985010147095</v>
       </c>
       <c r="W93" t="n">
-        <v>0.01568468473851681</v>
+        <v>0.138383537530899</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -7102,10 +7102,10 @@
         <v>0.5171439647674561</v>
       </c>
       <c r="V94" t="n">
-        <v>0.5245010852813721</v>
+        <v>0.8892217874526978</v>
       </c>
       <c r="W94" t="n">
-        <v>5.412722384789959e-05</v>
+        <v>0.1384419053792953</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -7173,10 +7173,10 @@
         <v>0.5130758285522461</v>
       </c>
       <c r="V95" t="n">
-        <v>0.4907757639884949</v>
+        <v>0.8750327825546265</v>
       </c>
       <c r="W95" t="n">
-        <v>0.0004972929018549621</v>
+        <v>0.1310128420591354</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -7244,10 +7244,10 @@
         <v>0.5142250061035156</v>
       </c>
       <c r="V96" t="n">
-        <v>0.3887981772422791</v>
+        <v>0.5162661671638489</v>
       </c>
       <c r="W96" t="n">
-        <v>0.01573188975453377</v>
+        <v>4.166338385402923e-06</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -7315,10 +7315,10 @@
         <v>0.5669159889221191</v>
       </c>
       <c r="V97" t="n">
-        <v>0.4897371828556061</v>
+        <v>0.3990429639816284</v>
       </c>
       <c r="W97" t="n">
-        <v>0.005956568289548159</v>
+        <v>0.02818135172128677</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -7386,10 +7386,10 @@
         <v>0.530346155166626</v>
       </c>
       <c r="V98" t="n">
-        <v>0.9755698442459106</v>
+        <v>0.4023880064487457</v>
       </c>
       <c r="W98" t="n">
-        <v>0.1982241272926331</v>
+        <v>0.01637328788638115</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -7457,10 +7457,10 @@
         <v>0.5177829265594482</v>
       </c>
       <c r="V99" t="n">
-        <v>0.6533357501029968</v>
+        <v>0.4003849625587463</v>
       </c>
       <c r="W99" t="n">
-        <v>0.01837456785142422</v>
+        <v>0.01378228235989809</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -7528,10 +7528,10 @@
         <v>0.5152218341827393</v>
       </c>
       <c r="V100" t="n">
-        <v>0.4176727831363678</v>
+        <v>0.5152577757835388</v>
       </c>
       <c r="W100" t="n">
-        <v>0.009515817277133465</v>
+        <v>1.291798668034971e-09</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -7599,10 +7599,10 @@
         <v>0.515596866607666</v>
       </c>
       <c r="V101" t="n">
-        <v>0.4176313579082489</v>
+        <v>0.8621764183044434</v>
       </c>
       <c r="W101" t="n">
-        <v>0.009597240947186947</v>
+        <v>0.1201173886656761</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -7670,10 +7670,10 @@
         <v>0.401155948638916</v>
       </c>
       <c r="V102" t="n">
-        <v>0.5763152837753296</v>
+        <v>0.5081797242164612</v>
       </c>
       <c r="W102" t="n">
-        <v>0.03068079240620136</v>
+        <v>0.01145408861339092</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -7741,10 +7741,10 @@
         <v>0.3949530124664307</v>
       </c>
       <c r="V103" t="n">
-        <v>0.8004398941993713</v>
+        <v>0.5276032686233521</v>
       </c>
       <c r="W103" t="n">
-        <v>0.1644196063280106</v>
+        <v>0.01759609021246433</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -7812,10 +7812,10 @@
         <v>0.4156339168548584</v>
       </c>
       <c r="V104" t="n">
-        <v>0.9756271839141846</v>
+        <v>0.8658294081687927</v>
       </c>
       <c r="W104" t="n">
-        <v>0.3135924637317657</v>
+        <v>0.2026759833097458</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -7883,10 +7883,10 @@
         <v>0.4135589599609375</v>
       </c>
       <c r="V105" t="n">
-        <v>0.6543079614639282</v>
+        <v>0.874352753162384</v>
       </c>
       <c r="W105" t="n">
-        <v>0.05796008184552193</v>
+        <v>0.2123309224843979</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -7954,10 +7954,10 @@
         <v>0.3867590427398682</v>
       </c>
       <c r="V106" t="n">
-        <v>0.8371423482894897</v>
+        <v>0.5161628723144531</v>
       </c>
       <c r="W106" t="n">
-        <v>0.2028451263904572</v>
+        <v>0.01674535125494003</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -8025,10 +8025,10 @@
         <v>0.3844408988952637</v>
       </c>
       <c r="V107" t="n">
-        <v>0.5258046388626099</v>
+        <v>0.8672869801521301</v>
       </c>
       <c r="W107" t="n">
-        <v>0.01998370699584484</v>
+        <v>0.2331403344869614</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -8096,10 +8096,10 @@
         <v>0.3857021331787109</v>
       </c>
       <c r="V108" t="n">
-        <v>0.5406032800674438</v>
+        <v>0.8750365376472473</v>
       </c>
       <c r="W108" t="n">
-        <v>0.02399436570703983</v>
+        <v>0.2394481599330902</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -8167,10 +8167,10 @@
         <v>0.3960518836975098</v>
       </c>
       <c r="V109" t="n">
-        <v>0.5826250314712524</v>
+        <v>0.876209557056427</v>
       </c>
       <c r="W109" t="n">
-        <v>0.03480954095721245</v>
+        <v>0.2305513918399811</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -8238,10 +8238,10 @@
         <v>0.3882601261138916</v>
       </c>
       <c r="V110" t="n">
-        <v>0.654336154460907</v>
+        <v>0.4004167020320892</v>
       </c>
       <c r="W110" t="n">
-        <v>0.07079645246267319</v>
+        <v>0.0001477823388995603</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -8309,10 +8309,10 @@
         <v>0.3904581069946289</v>
       </c>
       <c r="V111" t="n">
-        <v>0.3507537245750427</v>
+        <v>0.870286762714386</v>
       </c>
       <c r="W111" t="n">
-        <v>0.001576437964104116</v>
+        <v>0.2302355319261551</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -8380,10 +8380,10 @@
         <v>0.4048671722412109</v>
       </c>
       <c r="V112" t="n">
-        <v>0.5045692920684814</v>
+        <v>0.5228526592254639</v>
       </c>
       <c r="W112" t="n">
-        <v>0.009940512478351593</v>
+        <v>0.01392057538032532</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -8451,10 +8451,10 @@
         <v>0.3904800415039062</v>
       </c>
       <c r="V113" t="n">
-        <v>0.6528818607330322</v>
+        <v>0.5164774060249329</v>
       </c>
       <c r="W113" t="n">
-        <v>0.06885471194982529</v>
+        <v>0.01587533578276634</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -8522,10 +8522,10 @@
         <v>0.3906159400939941</v>
       </c>
       <c r="V114" t="n">
-        <v>0.3507460951805115</v>
+        <v>0.4009958505630493</v>
       </c>
       <c r="W114" t="n">
-        <v>0.001589604537002742</v>
+        <v>0.0001077425404218957</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -8593,10 +8593,10 @@
         <v>0.4446060657501221</v>
       </c>
       <c r="V115" t="n">
-        <v>0.4903136193752289</v>
+        <v>0.4001317918300629</v>
       </c>
       <c r="W115" t="n">
-        <v>0.002089180517941713</v>
+        <v>0.001977961044758558</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -8664,10 +8664,10 @@
         <v>0.3892958164215088</v>
       </c>
       <c r="V116" t="n">
-        <v>0.3710145056247711</v>
+        <v>0.5157198905944824</v>
       </c>
       <c r="W116" t="n">
-        <v>0.0003342063282616436</v>
+        <v>0.01598304696381092</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -8735,10 +8735,10 @@
         <v>0.3912420272827148</v>
       </c>
       <c r="V117" t="n">
-        <v>0.6927068829536438</v>
+        <v>0.3990534245967865</v>
       </c>
       <c r="W117" t="n">
-        <v>0.09088105708360672</v>
+        <v>6.101792678236961e-05</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -8806,10 +8806,10 @@
         <v>0.394881010055542</v>
       </c>
       <c r="V118" t="n">
-        <v>0.8000637888908386</v>
+        <v>0.8709344267845154</v>
       </c>
       <c r="W118" t="n">
-        <v>0.1641730815172195</v>
+        <v>0.2266268581151962</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -8877,10 +8877,10 @@
         <v>0.3863229751586914</v>
       </c>
       <c r="V119" t="n">
-        <v>0.6516773104667664</v>
+        <v>0.4004132449626923</v>
       </c>
       <c r="W119" t="n">
-        <v>0.07041292637586594</v>
+        <v>0.0001985357084777206</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -8948,10 +8948,10 @@
         <v>0.4008159637451172</v>
       </c>
       <c r="V120" t="n">
-        <v>0.5930236577987671</v>
+        <v>0.8872098326683044</v>
       </c>
       <c r="W120" t="n">
-        <v>0.03694379702210426</v>
+        <v>0.2365790009498596</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -9019,10 +9019,10 @@
         <v>0.436133861541748</v>
       </c>
       <c r="V121" t="n">
-        <v>0.503772497177124</v>
+        <v>0.516023576259613</v>
       </c>
       <c r="W121" t="n">
-        <v>0.00457498524338007</v>
+        <v>0.006382366642355919</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -9090,10 +9090,10 @@
         <v>0.8765430450439453</v>
       </c>
       <c r="V122" t="n">
-        <v>0.5822299122810364</v>
+        <v>0.4027521908283234</v>
       </c>
       <c r="W122" t="n">
-        <v>0.08662021905183792</v>
+        <v>0.2244777679443359</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -9161,10 +9161,10 @@
         <v>0.9348001480102539</v>
       </c>
       <c r="V123" t="n">
-        <v>0.4781287908554077</v>
+        <v>0.8878183960914612</v>
       </c>
       <c r="W123" t="n">
-        <v>0.2085487246513367</v>
+        <v>0.002207285026088357</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -9232,10 +9232,10 @@
         <v>0.8809471130371094</v>
       </c>
       <c r="V124" t="n">
-        <v>0.5762090086936951</v>
+        <v>0.5189142227172852</v>
       </c>
       <c r="W124" t="n">
-        <v>0.09286531060934067</v>
+        <v>0.1310678124427795</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -9303,10 +9303,10 @@
         <v>0.9351129531860352</v>
       </c>
       <c r="V125" t="n">
-        <v>0.9755959510803223</v>
+        <v>0.5234287977218628</v>
       </c>
       <c r="W125" t="n">
-        <v>0.001638873131014407</v>
+        <v>0.1694838404655457</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -9374,10 +9374,10 @@
         <v>0.889458179473877</v>
       </c>
       <c r="V126" t="n">
-        <v>0.5257673263549805</v>
+        <v>0.5196458697319031</v>
       </c>
       <c r="W126" t="n">
-        <v>0.1322710365056992</v>
+        <v>0.1367611438035965</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -9445,10 +9445,10 @@
         <v>0.8697690963745117</v>
       </c>
       <c r="V127" t="n">
-        <v>0.4907099008560181</v>
+        <v>0.3993373215198517</v>
       </c>
       <c r="W127" t="n">
-        <v>0.1436858773231506</v>
+        <v>0.2213060557842255</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -9516,10 +9516,10 @@
         <v>0.8719301223754883</v>
       </c>
       <c r="V128" t="n">
-        <v>0.4176601767539978</v>
+        <v>0.3998909294605255</v>
       </c>
       <c r="W128" t="n">
-        <v>0.2063611894845963</v>
+        <v>0.2228209972381592</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -9587,10 +9587,10 @@
         <v>0.9257850646972656</v>
       </c>
       <c r="V129" t="n">
-        <v>0.4896917641162872</v>
+        <v>0.8879434466362</v>
       </c>
       <c r="W129" t="n">
-        <v>0.1901773661375046</v>
+        <v>0.001431988086551428</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -9658,10 +9658,10 @@
         <v>0.8736941814422607</v>
       </c>
       <c r="V130" t="n">
-        <v>0.5051002502441406</v>
+        <v>0.8680537939071655</v>
       </c>
       <c r="W130" t="n">
-        <v>0.1358614861965179</v>
+        <v>3.181397187290713e-05</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -9729,10 +9729,10 @@
         <v>0.864570140838623</v>
       </c>
       <c r="V131" t="n">
-        <v>0.3471212387084961</v>
+        <v>0.5223343968391418</v>
       </c>
       <c r="W131" t="n">
-        <v>0.2677533626556396</v>
+        <v>0.1171253025531769</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -9800,10 +9800,10 @@
         <v>0.8708148002624512</v>
       </c>
       <c r="V132" t="n">
-        <v>0.5870838761329651</v>
+        <v>0.4003883898258209</v>
       </c>
       <c r="W132" t="n">
-        <v>0.08050324022769928</v>
+        <v>0.2213010042905807</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -9871,10 +9871,10 @@
         <v>0.9535980224609375</v>
       </c>
       <c r="V133" t="n">
-        <v>0.5825173258781433</v>
+        <v>0.5208246111869812</v>
       </c>
       <c r="W133" t="n">
-        <v>0.1377008855342865</v>
+        <v>0.1872928291559219</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -9942,10 +9942,10 @@
         <v>0.8762309551239014</v>
       </c>
       <c r="V134" t="n">
-        <v>0.653493344783783</v>
+        <v>0.5199968218803406</v>
       </c>
       <c r="W134" t="n">
-        <v>0.04961204156279564</v>
+        <v>0.1269027590751648</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -10013,10 +10013,10 @@
         <v>0.8709797859191895</v>
       </c>
       <c r="V135" t="n">
-        <v>0.5051230192184448</v>
+        <v>0.4010123908519745</v>
       </c>
       <c r="W135" t="n">
-        <v>0.133851170539856</v>
+        <v>0.2208693474531174</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -10084,10 +10084,10 @@
         <v>0.8654229640960693</v>
       </c>
       <c r="V136" t="n">
-        <v>0.5050980448722839</v>
+        <v>0.5278769731521606</v>
       </c>
       <c r="W136" t="n">
-        <v>0.1298340409994125</v>
+        <v>0.1139372959733009</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -10155,10 +10155,10 @@
         <v>0.9530320167541504</v>
       </c>
       <c r="V137" t="n">
-        <v>0.4898227453231812</v>
+        <v>0.4004223644733429</v>
       </c>
       <c r="W137" t="n">
-        <v>0.2145628333091736</v>
+        <v>0.3053774535655975</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -10226,10 +10226,10 @@
         <v>0.9058260917663574</v>
       </c>
       <c r="V138" t="n">
-        <v>0.524641752243042</v>
+        <v>0.3998931348323822</v>
       </c>
       <c r="W138" t="n">
-        <v>0.1453015059232712</v>
+        <v>0.2559681236743927</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -10297,10 +10297,10 @@
         <v>0.8882400989532471</v>
       </c>
       <c r="V139" t="n">
-        <v>0.8047276735305786</v>
+        <v>0.5287279486656189</v>
       </c>
       <c r="W139" t="n">
-        <v>0.00697432504966855</v>
+        <v>0.1292489916086197</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -10368,10 +10368,10 @@
         <v>0.8628361225128174</v>
       </c>
       <c r="V140" t="n">
-        <v>0.5760191679000854</v>
+        <v>0.3990317285060883</v>
       </c>
       <c r="W140" t="n">
-        <v>0.08226396888494492</v>
+        <v>0.2151145190000534</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -10439,10 +10439,10 @@
         <v>0.931145191192627</v>
       </c>
       <c r="V141" t="n">
-        <v>0.5821697115898132</v>
+        <v>0.4010624885559082</v>
       </c>
       <c r="W141" t="n">
-        <v>0.1217838823795319</v>
+        <v>0.2809876799583435</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -10510,10 +10510,10 @@
         <v>0.5357050895690918</v>
       </c>
       <c r="V142" t="n">
-        <v>0.7081183791160583</v>
+        <v>0.400374174118042</v>
       </c>
       <c r="W142" t="n">
-        <v>0.02972634322941303</v>
+        <v>0.01831445656716824</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -10581,10 +10581,10 @@
         <v>0.5127849578857422</v>
       </c>
       <c r="V143" t="n">
-        <v>0.4175398349761963</v>
+        <v>0.8692985773086548</v>
       </c>
       <c r="W143" t="n">
-        <v>0.009071633219718933</v>
+        <v>0.1271019577980042</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -10652,10 +10652,10 @@
         <v>0.5200159549713135</v>
       </c>
       <c r="V144" t="n">
-        <v>0.6992238759994507</v>
+        <v>0.8736876845359802</v>
       </c>
       <c r="W144" t="n">
-        <v>0.03211547806859016</v>
+        <v>0.1250836849212646</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -10723,10 +10723,10 @@
         <v>0.5192179679870605</v>
       </c>
       <c r="V145" t="n">
-        <v>0.8046457171440125</v>
+        <v>0.3990617096424103</v>
       </c>
       <c r="W145" t="n">
-        <v>0.08146899938583374</v>
+        <v>0.01443752646446228</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -10794,10 +10794,10 @@
         <v>0.5712299346923828</v>
       </c>
       <c r="V146" t="n">
-        <v>0.4909484088420868</v>
+        <v>0.5237616896629333</v>
       </c>
       <c r="W146" t="n">
-        <v>0.006445123348385096</v>
+        <v>0.002253234386444092</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -10865,10 +10865,10 @@
         <v>0.543971061706543</v>
       </c>
       <c r="V147" t="n">
-        <v>0.4615180790424347</v>
+        <v>0.4030326902866364</v>
       </c>
       <c r="W147" t="n">
-        <v>0.006798494141548872</v>
+        <v>0.01986362412571907</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -10936,10 +10936,10 @@
         <v>0.5224637985229492</v>
       </c>
       <c r="V148" t="n">
-        <v>0.4638285040855408</v>
+        <v>0.5325727462768555</v>
       </c>
       <c r="W148" t="n">
-        <v>0.003438097657635808</v>
+        <v>0.0001021908246912062</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -11007,10 +11007,10 @@
         <v>0.5186870098114014</v>
       </c>
       <c r="V149" t="n">
-        <v>0.6992213726043701</v>
+        <v>0.8954277038574219</v>
       </c>
       <c r="W149" t="n">
-        <v>0.03259265795350075</v>
+        <v>0.1419335454702377</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -11078,10 +11078,10 @@
         <v>0.5229678153991699</v>
       </c>
       <c r="V150" t="n">
-        <v>0.4906106293201447</v>
+        <v>0.3992032706737518</v>
       </c>
       <c r="W150" t="n">
-        <v>0.001046987483277917</v>
+        <v>0.01531766261905432</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -11149,10 +11149,10 @@
         <v>0.5414509773254395</v>
       </c>
       <c r="V151" t="n">
-        <v>0.6538669466972351</v>
+        <v>0.5225792527198792</v>
       </c>
       <c r="W151" t="n">
-        <v>0.01263734977692366</v>
+        <v>0.0003561420016922057</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -11220,10 +11220,10 @@
         <v>0.5159451961517334</v>
       </c>
       <c r="V152" t="n">
-        <v>0.505433976650238</v>
+        <v>0.8742935061454773</v>
       </c>
       <c r="W152" t="n">
-        <v>0.0001104857365135103</v>
+        <v>0.128413513302803</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -11291,10 +11291,10 @@
         <v>0.5153639316558838</v>
       </c>
       <c r="V153" t="n">
-        <v>0.3507673740386963</v>
+        <v>0.8634278178215027</v>
       </c>
       <c r="W153" t="n">
-        <v>0.02709202654659748</v>
+        <v>0.1211484670639038</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -11362,10 +11362,10 @@
         <v>0.5250740051269531</v>
       </c>
       <c r="V154" t="n">
-        <v>0.3507855832576752</v>
+        <v>0.4004770815372467</v>
       </c>
       <c r="W154" t="n">
-        <v>0.03037645481526852</v>
+        <v>0.01552439294755459</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -11433,10 +11433,10 @@
         <v>0.5198521614074707</v>
       </c>
       <c r="V155" t="n">
-        <v>0.8028735518455505</v>
+        <v>0.8871946334838867</v>
       </c>
       <c r="W155" t="n">
-        <v>0.08010111004114151</v>
+        <v>0.1349404901266098</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -11504,10 +11504,10 @@
         <v>0.5200920104980469</v>
       </c>
       <c r="V156" t="n">
-        <v>0.8012609481811523</v>
+        <v>0.8744600415229797</v>
       </c>
       <c r="W156" t="n">
-        <v>0.07905597239732742</v>
+        <v>0.1255767047405243</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -11575,10 +11575,10 @@
         <v>0.5439369678497314</v>
       </c>
       <c r="V157" t="n">
-        <v>0.5038111805915833</v>
+        <v>0.5230969786643982</v>
       </c>
       <c r="W157" t="n">
-        <v>0.001610078848898411</v>
+        <v>0.0004343051405157894</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -11646,10 +11646,10 @@
         <v>0.5180602073669434</v>
       </c>
       <c r="V158" t="n">
-        <v>0.4634823501110077</v>
+        <v>0.3999136090278625</v>
       </c>
       <c r="W158" t="n">
-        <v>0.002978742588311434</v>
+        <v>0.01395861897617579</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -11717,10 +11717,10 @@
         <v>0.5201480388641357</v>
       </c>
       <c r="V159" t="n">
-        <v>0.5052164793014526</v>
+        <v>0.5182740688323975</v>
       </c>
       <c r="W159" t="n">
-        <v>0.0002229514648206532</v>
+        <v>3.511763679853175e-06</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -11788,10 +11788,10 @@
         <v>0.5098690986633301</v>
       </c>
       <c r="V160" t="n">
-        <v>0.4611244201660156</v>
+        <v>0.8702406883239746</v>
       </c>
       <c r="W160" t="n">
-        <v>0.002376043703407049</v>
+        <v>0.1298676878213882</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -11859,10 +11859,10 @@
         <v>0.5170540809631348</v>
       </c>
       <c r="V161" t="n">
-        <v>0.4634905457496643</v>
+        <v>0.8822182416915894</v>
       </c>
       <c r="W161" t="n">
-        <v>0.002869052346795797</v>
+        <v>0.1333448588848114</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -11930,10 +11930,10 @@
         <v>0.4286761283874512</v>
       </c>
       <c r="V162" t="n">
-        <v>0.6926973462104797</v>
+        <v>0.5211033821105957</v>
       </c>
       <c r="W162" t="n">
-        <v>0.06970719993114471</v>
+        <v>0.008542797528207302</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -12001,10 +12001,10 @@
         <v>0.3906779289245605</v>
       </c>
       <c r="V163" t="n">
-        <v>0.801636278629303</v>
+        <v>0.8660655617713928</v>
       </c>
       <c r="W163" t="n">
-        <v>0.1688867658376694</v>
+        <v>0.2259933948516846</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -12072,10 +12072,10 @@
         <v>0.4048030376434326</v>
       </c>
       <c r="V164" t="n">
-        <v>0.4691958427429199</v>
+        <v>0.5279373526573181</v>
       </c>
       <c r="W164" t="n">
-        <v>0.004146433435380459</v>
+        <v>0.01516205910593271</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -12143,10 +12143,10 @@
         <v>0.3938980102539062</v>
       </c>
       <c r="V165" t="n">
-        <v>0.4176262617111206</v>
+        <v>0.8585407733917236</v>
       </c>
       <c r="W165" t="n">
-        <v>0.0005630298983305693</v>
+        <v>0.2158928960561752</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -12214,10 +12214,10 @@
         <v>0.3899369239807129</v>
       </c>
       <c r="V166" t="n">
-        <v>0.5249706506729126</v>
+        <v>0.5140669345855713</v>
       </c>
       <c r="W166" t="n">
-        <v>0.01823410764336586</v>
+        <v>0.01540825981646776</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -12285,10 +12285,10 @@
         <v>0.3906540870666504</v>
       </c>
       <c r="V167" t="n">
-        <v>0.8414528369903564</v>
+        <v>0.5308068990707397</v>
       </c>
       <c r="W167" t="n">
-        <v>0.2032195180654526</v>
+        <v>0.01964281126856804</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -12356,10 +12356,10 @@
         <v>0.38991379737854</v>
       </c>
       <c r="V168" t="n">
-        <v>0.4176275134086609</v>
+        <v>0.5234428644180298</v>
       </c>
       <c r="W168" t="n">
-        <v>0.0007680500275455415</v>
+        <v>0.01783001236617565</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -12427,10 +12427,10 @@
         <v>0.3932590484619141</v>
       </c>
       <c r="V169" t="n">
-        <v>0.5049243569374084</v>
+        <v>0.4000105559825897</v>
       </c>
       <c r="W169" t="n">
-        <v>0.01246914081275463</v>
+        <v>4.558285218081437e-05</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -12498,10 +12498,10 @@
         <v>0.3979380130767822</v>
       </c>
       <c r="V170" t="n">
-        <v>0.6532728672027588</v>
+        <v>0.8848328590393066</v>
       </c>
       <c r="W170" t="n">
-        <v>0.06519588828086853</v>
+        <v>0.2370665967464447</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -12569,10 +12569,10 @@
         <v>0.3962500095367432</v>
       </c>
       <c r="V171" t="n">
-        <v>0.6533793210983276</v>
+        <v>0.8872462511062622</v>
       </c>
       <c r="W171" t="n">
-        <v>0.06611548364162445</v>
+        <v>0.2410773038864136</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -12640,10 +12640,10 @@
         <v>0.4004569053649902</v>
       </c>
       <c r="V172" t="n">
-        <v>0.8341859579086304</v>
+        <v>0.8747715353965759</v>
       </c>
       <c r="W172" t="n">
-        <v>0.1881208866834641</v>
+        <v>0.2249743640422821</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -12711,10 +12711,10 @@
         <v>0.4443459510803223</v>
       </c>
       <c r="V173" t="n">
-        <v>0.5247749090194702</v>
+        <v>0.8819929957389832</v>
       </c>
       <c r="W173" t="n">
-        <v>0.006468817126005888</v>
+        <v>0.1915349364280701</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -12782,10 +12782,10 @@
         <v>0.4053378105163574</v>
       </c>
       <c r="V174" t="n">
-        <v>0.6990503668785095</v>
+        <v>0.4010831415653229</v>
       </c>
       <c r="W174" t="n">
-        <v>0.08626706898212433</v>
+        <v>1.810220783227123e-05</v>
       </c>
     </row>
     <row r="175" spans="1:23">
@@ -12853,10 +12853,10 @@
         <v>0.3984899520874023</v>
       </c>
       <c r="V175" t="n">
-        <v>0.3712720274925232</v>
+        <v>0.5162141919136047</v>
       </c>
       <c r="W175" t="n">
-        <v>0.000740815419703722</v>
+        <v>0.01385899633169174</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -12924,10 +12924,10 @@
         <v>0.3937399387359619</v>
       </c>
       <c r="V176" t="n">
-        <v>0.5908601880073547</v>
+        <v>0.5215827226638794</v>
       </c>
       <c r="W176" t="n">
-        <v>0.038856390863657</v>
+        <v>0.01634377799928188</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -12995,10 +12995,10 @@
         <v>0.409498929977417</v>
       </c>
       <c r="V177" t="n">
-        <v>0.9755794405937195</v>
+        <v>0.4006488621234894</v>
       </c>
       <c r="W177" t="n">
-        <v>0.3204471468925476</v>
+        <v>7.832370465621352e-05</v>
       </c>
     </row>
     <row r="178" spans="1:23">
@@ -13066,10 +13066,10 @@
         <v>0.4042239189147949</v>
       </c>
       <c r="V178" t="n">
-        <v>0.372467577457428</v>
+        <v>0.5229914784431458</v>
       </c>
       <c r="W178" t="n">
-        <v>0.001008465187624097</v>
+        <v>0.01410573348402977</v>
       </c>
     </row>
     <row r="179" spans="1:23">
@@ -13137,10 +13137,10 @@
         <v>0.3954877853393555</v>
       </c>
       <c r="V179" t="n">
-        <v>0.6534236073493958</v>
+        <v>0.8903027176856995</v>
       </c>
       <c r="W179" t="n">
-        <v>0.06653089076280594</v>
+        <v>0.2448418140411377</v>
       </c>
     </row>
     <row r="180" spans="1:23">
@@ -13208,10 +13208,10 @@
         <v>0.3989548683166504</v>
       </c>
       <c r="V180" t="n">
-        <v>0.5054473876953125</v>
+        <v>0.4003664553165436</v>
       </c>
       <c r="W180" t="n">
-        <v>0.01134065631777048</v>
+        <v>1.992577836062992e-06</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -13279,10 +13279,10 @@
         <v>0.4435088634490967</v>
       </c>
       <c r="V181" t="n">
-        <v>0.4176277816295624</v>
+        <v>0.8739678263664246</v>
       </c>
       <c r="W181" t="n">
-        <v>0.0006698304205201566</v>
+        <v>0.1852949261665344</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -13350,10 +13350,10 @@
         <v>0.8759188652038574</v>
       </c>
       <c r="V182" t="n">
-        <v>0.6535108089447021</v>
+        <v>0.4009799063205719</v>
       </c>
       <c r="W182" t="n">
-        <v>0.04946534335613251</v>
+        <v>0.2255670130252838</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -13421,10 +13421,10 @@
         <v>0.9079539775848389</v>
       </c>
       <c r="V183" t="n">
-        <v>0.4634914994239807</v>
+        <v>0.4004464447498322</v>
       </c>
       <c r="W183" t="n">
-        <v>0.1975468993186951</v>
+        <v>0.2575639188289642</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -13492,10 +13492,10 @@
         <v>0.8769569396972656</v>
       </c>
       <c r="V184" t="n">
-        <v>0.3470365405082703</v>
+        <v>0.4024762213230133</v>
       </c>
       <c r="W184" t="n">
-        <v>0.2808156311511993</v>
+        <v>0.2251319587230682</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -13563,10 +13563,10 @@
         <v>0.9335319995880127</v>
       </c>
       <c r="V185" t="n">
-        <v>0.97564297914505</v>
+        <v>0.3990343511104584</v>
       </c>
       <c r="W185" t="n">
-        <v>0.001773334573954344</v>
+        <v>0.2856877148151398</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -13634,10 +13634,10 @@
         <v>0.8695228099822998</v>
       </c>
       <c r="V186" t="n">
-        <v>0.975181519985199</v>
+        <v>0.3993396759033203</v>
       </c>
       <c r="W186" t="n">
-        <v>0.01116376277059317</v>
+        <v>0.221072182059288</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -13705,10 +13705,10 @@
         <v>0.8765580654144287</v>
       </c>
       <c r="V187" t="n">
-        <v>0.405481219291687</v>
+        <v>0.8841531872749329</v>
       </c>
       <c r="W187" t="n">
-        <v>0.2219133973121643</v>
+        <v>5.768587652710266e-05</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -13776,10 +13776,10 @@
         <v>0.8621768951416016</v>
       </c>
       <c r="V188" t="n">
-        <v>0.4176499843597412</v>
+        <v>0.5288753509521484</v>
       </c>
       <c r="W188" t="n">
-        <v>0.1976041793823242</v>
+        <v>0.1110899224877357</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -13847,10 +13847,10 @@
         <v>0.9209358692169189</v>
       </c>
       <c r="V189" t="n">
-        <v>0.7035881876945496</v>
+        <v>0.8714568018913269</v>
       </c>
       <c r="W189" t="n">
-        <v>0.04724001511931419</v>
+        <v>0.002448178129270673</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -13918,10 +13918,10 @@
         <v>0.8643569946289062</v>
       </c>
       <c r="V190" t="n">
-        <v>0.3507497906684875</v>
+        <v>0.4010038077831268</v>
       </c>
       <c r="W190" t="n">
-        <v>0.2637923657894135</v>
+        <v>0.2146961688995361</v>
       </c>
     </row>
     <row r="191" spans="1:23">
@@ -13989,10 +13989,10 @@
         <v>0.8807570934295654</v>
       </c>
       <c r="V191" t="n">
-        <v>0.9755281805992126</v>
+        <v>0.8876776099205017</v>
       </c>
       <c r="W191" t="n">
-        <v>0.008981559425592422</v>
+        <v>4.789354716194794e-05</v>
       </c>
     </row>
     <row r="192" spans="1:23">
@@ -14060,10 +14060,10 @@
         <v>0.9052441120147705</v>
       </c>
       <c r="V192" t="n">
-        <v>0.590633749961853</v>
+        <v>0.4000058174133301</v>
       </c>
       <c r="W192" t="n">
-        <v>0.09897968173027039</v>
+        <v>0.2552657425403595</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -14131,10 +14131,10 @@
         <v>0.923954963684082</v>
       </c>
       <c r="V193" t="n">
-        <v>0.4638172388076782</v>
+        <v>0.5157759785652161</v>
       </c>
       <c r="W193" t="n">
-        <v>0.2117267251014709</v>
+        <v>0.1666100770235062</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -14202,10 +14202,10 @@
         <v>0.8688209056854248</v>
       </c>
       <c r="V194" t="n">
-        <v>0.6531109213829041</v>
+        <v>0.3998070359230042</v>
       </c>
       <c r="W194" t="n">
-        <v>0.04653079807758331</v>
+        <v>0.219974011182785</v>
       </c>
     </row>
     <row r="195" spans="1:23">
@@ -14273,10 +14273,10 @@
         <v>0.8627910614013672</v>
       </c>
       <c r="V195" t="n">
-        <v>0.4906497597694397</v>
+        <v>0.5664554834365845</v>
       </c>
       <c r="W195" t="n">
-        <v>0.1384891420602798</v>
+        <v>0.08781477808952332</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -14344,10 +14344,10 @@
         <v>0.858828067779541</v>
       </c>
       <c r="V196" t="n">
-        <v>0.4615276753902435</v>
+        <v>0.4969356954097748</v>
       </c>
       <c r="W196" t="n">
-        <v>0.157847598195076</v>
+        <v>0.1309660822153091</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -14415,10 +14415,10 @@
         <v>0.92386794090271</v>
       </c>
       <c r="V197" t="n">
-        <v>0.6536403894424438</v>
+        <v>0.5161239504814148</v>
       </c>
       <c r="W197" t="n">
-        <v>0.07302293181419373</v>
+        <v>0.1662551611661911</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -14486,10 +14486,10 @@
         <v>0.8679449558258057</v>
       </c>
       <c r="V198" t="n">
-        <v>0.3789054155349731</v>
+        <v>0.8694286942481995</v>
       </c>
       <c r="W198" t="n">
-        <v>0.2391596734523773</v>
+        <v>2.201479674113216e-06</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -14557,10 +14557,10 @@
         <v>0.866894006729126</v>
       </c>
       <c r="V199" t="n">
-        <v>0.6537992358207703</v>
+        <v>0.3990422487258911</v>
       </c>
       <c r="W199" t="n">
-        <v>0.04540938138961792</v>
+        <v>0.2188852727413177</v>
       </c>
     </row>
     <row r="200" spans="1:23">
@@ -14628,10 +14628,10 @@
         <v>0.8593921661376953</v>
       </c>
       <c r="V200" t="n">
-        <v>0.3785795569419861</v>
+        <v>0.4009741544723511</v>
       </c>
       <c r="W200" t="n">
-        <v>0.2311807721853256</v>
+        <v>0.2101470679044724</v>
       </c>
     </row>
     <row r="201" spans="1:23">
@@ -14699,10 +14699,10 @@
         <v>0.8721721172332764</v>
       </c>
       <c r="V201" t="n">
-        <v>0.4904178380966187</v>
+        <v>0.5162527561187744</v>
       </c>
       <c r="W201" t="n">
-        <v>0.1457363367080688</v>
+        <v>0.1266785860061646</v>
       </c>
     </row>
     <row r="202" spans="1:23">
@@ -14770,10 +14770,10 @@
         <v>0.5191779136657715</v>
       </c>
       <c r="V202" t="n">
-        <v>0.4692052006721497</v>
+        <v>0.8745742440223694</v>
       </c>
       <c r="W202" t="n">
-        <v>0.002497272100299597</v>
+        <v>0.1263065487146378</v>
       </c>
     </row>
     <row r="203" spans="1:23">
@@ -14841,10 +14841,10 @@
         <v>0.5142409801483154</v>
       </c>
       <c r="V203" t="n">
-        <v>0.4611299932003021</v>
+        <v>0.8702836036682129</v>
       </c>
       <c r="W203" t="n">
-        <v>0.00282077700830996</v>
+        <v>0.1267663538455963</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -14912,10 +14912,10 @@
         <v>0.5221579074859619</v>
       </c>
       <c r="V204" t="n">
-        <v>0.4614459872245789</v>
+        <v>0.4024759829044342</v>
       </c>
       <c r="W204" t="n">
-        <v>0.003685937263071537</v>
+        <v>0.01432376261800528</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -14983,10 +14983,10 @@
         <v>0.5183939933776855</v>
       </c>
       <c r="V205" t="n">
-        <v>0.800457239151001</v>
+        <v>0.521014392375946</v>
       </c>
       <c r="W205" t="n">
-        <v>0.07955967634916306</v>
+        <v>6.86649082126678e-06</v>
       </c>
     </row>
     <row r="206" spans="1:23">
@@ -15054,10 +15054,10 @@
         <v>0.5414669513702393</v>
       </c>
       <c r="V206" t="n">
-        <v>0.3507806360721588</v>
+        <v>0.8779998421669006</v>
       </c>
       <c r="W206" t="n">
-        <v>0.03636126965284348</v>
+        <v>0.1132543832063675</v>
       </c>
     </row>
     <row r="207" spans="1:23">
@@ -15125,10 +15125,10 @@
         <v>0.5205578804016113</v>
       </c>
       <c r="V207" t="n">
-        <v>0.3721317946910858</v>
+        <v>0.3990463316440582</v>
       </c>
       <c r="W207" t="n">
-        <v>0.02203030325472355</v>
+        <v>0.01476505678147078</v>
       </c>
     </row>
     <row r="208" spans="1:23">
@@ -15196,10 +15196,10 @@
         <v>0.5142138004302979</v>
       </c>
       <c r="V208" t="n">
-        <v>0.5036088228225708</v>
+        <v>0.3990439176559448</v>
       </c>
       <c r="W208" t="n">
-        <v>0.0001124655536841601</v>
+        <v>0.01326410192996264</v>
       </c>
     </row>
     <row r="209" spans="1:23">
@@ -15267,10 +15267,10 @@
         <v>0.526324987411499</v>
       </c>
       <c r="V209" t="n">
-        <v>0.4176395535469055</v>
+        <v>0.4003712236881256</v>
       </c>
       <c r="W209" t="n">
-        <v>0.01181252393871546</v>
+        <v>0.01586434990167618</v>
       </c>
     </row>
     <row r="210" spans="1:23">
@@ -15338,10 +15338,10 @@
         <v>0.518017053604126</v>
       </c>
       <c r="V210" t="n">
-        <v>0.7035837173461914</v>
+        <v>0.8617225289344788</v>
       </c>
       <c r="W210" t="n">
-        <v>0.03443498536944389</v>
+        <v>0.1181334555149078</v>
       </c>
     </row>
     <row r="211" spans="1:23">
@@ -15409,10 +15409,10 @@
         <v>0.5759270191192627</v>
       </c>
       <c r="V211" t="n">
-        <v>0.8340836763381958</v>
+        <v>0.3990322351455688</v>
       </c>
       <c r="W211" t="n">
-        <v>0.06664486229419708</v>
+        <v>0.03129176422953606</v>
       </c>
     </row>
     <row r="212" spans="1:23">
@@ -15480,10 +15480,10 @@
         <v>0.5229740142822266</v>
       </c>
       <c r="V212" t="n">
-        <v>0.3507419228553772</v>
+        <v>0.5236139893531799</v>
       </c>
       <c r="W212" t="n">
-        <v>0.02966389246284962</v>
+        <v>4.095680878890562e-07</v>
       </c>
     </row>
     <row r="213" spans="1:23">
@@ -15551,10 +15551,10 @@
         <v>0.523759126663208</v>
       </c>
       <c r="V213" t="n">
-        <v>0.5756250023841858</v>
+        <v>0.5156157612800598</v>
       </c>
       <c r="W213" t="n">
-        <v>0.002690069144591689</v>
+        <v>6.631440191995353e-05</v>
       </c>
     </row>
     <row r="214" spans="1:23">
@@ -15622,10 +15622,10 @@
         <v>0.5207309722900391</v>
       </c>
       <c r="V214" t="n">
-        <v>0.4176654517650604</v>
+        <v>0.4000187516212463</v>
       </c>
       <c r="W214" t="n">
-        <v>0.01062250137329102</v>
+        <v>0.01457144040614367</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -15693,10 +15693,10 @@
         <v>0.5223240852355957</v>
       </c>
       <c r="V215" t="n">
-        <v>0.6546903848648071</v>
+        <v>0.5084355473518372</v>
       </c>
       <c r="W215" t="n">
-        <v>0.01752083748579025</v>
+        <v>0.0001928914862219244</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -15764,10 +15764,10 @@
         <v>0.5216178894042969</v>
       </c>
       <c r="V216" t="n">
-        <v>0.6525439023971558</v>
+        <v>0.5259231328964233</v>
       </c>
       <c r="W216" t="n">
-        <v>0.01714162155985832</v>
+        <v>1.853512185334694e-05</v>
       </c>
     </row>
     <row r="217" spans="1:23">
@@ -15835,10 +15835,10 @@
         <v>0.5229220390319824</v>
       </c>
       <c r="V217" t="n">
-        <v>0.8039833903312683</v>
+        <v>0.5178071260452271</v>
       </c>
       <c r="W217" t="n">
-        <v>0.078995481133461</v>
+        <v>2.616233541630208e-05</v>
       </c>
     </row>
     <row r="218" spans="1:23">
@@ -15906,10 +15906,10 @@
         <v>0.525583028793335</v>
       </c>
       <c r="V218" t="n">
-        <v>0.5946947336196899</v>
+        <v>0.3998279869556427</v>
       </c>
       <c r="W218" t="n">
-        <v>0.004776427522301674</v>
+        <v>0.01581433042883873</v>
       </c>
     </row>
     <row r="219" spans="1:23">
@@ -15977,10 +15977,10 @@
         <v>0.520596981048584</v>
       </c>
       <c r="V219" t="n">
-        <v>0.5248926877975464</v>
+        <v>0.399806797504425</v>
       </c>
       <c r="W219" t="n">
-        <v>1.845309634518344e-05</v>
+        <v>0.01459026802331209</v>
       </c>
     </row>
     <row r="220" spans="1:23">
@@ -16048,10 +16048,10 @@
         <v>0.5256521701812744</v>
       </c>
       <c r="V220" t="n">
-        <v>0.7082430720329285</v>
+        <v>0.5206838846206665</v>
       </c>
       <c r="W220" t="n">
-        <v>0.03333943709731102</v>
+        <v>2.468386082910001e-05</v>
       </c>
     </row>
     <row r="221" spans="1:23">
@@ -16119,10 +16119,10 @@
         <v>0.5186018943786621</v>
       </c>
       <c r="V221" t="n">
-        <v>0.5762413144111633</v>
+        <v>0.3990304470062256</v>
       </c>
       <c r="W221" t="n">
-        <v>0.003322302829474211</v>
+        <v>0.01429733075201511</v>
       </c>
     </row>
     <row r="222" spans="1:23">
@@ -16190,10 +16190,10 @@
         <v>0.4369480609893799</v>
       </c>
       <c r="V222" t="n">
-        <v>0.699232816696167</v>
+        <v>0.4001545011997223</v>
       </c>
       <c r="W222" t="n">
-        <v>0.06879328936338425</v>
+        <v>0.00135376607067883</v>
       </c>
     </row>
     <row r="223" spans="1:23">
@@ -16261,10 +16261,10 @@
         <v>0.3863978385925293</v>
       </c>
       <c r="V223" t="n">
-        <v>0.3719204664230347</v>
+        <v>0.8733868598937988</v>
       </c>
       <c r="W223" t="n">
-        <v>0.000209594305488281</v>
+        <v>0.2371583133935928</v>
       </c>
     </row>
     <row r="224" spans="1:23">
@@ -16332,10 +16332,10 @@
         <v>0.3937249183654785</v>
       </c>
       <c r="V224" t="n">
-        <v>0.4638242721557617</v>
+        <v>0.8727364540100098</v>
       </c>
       <c r="W224" t="n">
-        <v>0.004913919605314732</v>
+        <v>0.229452058672905</v>
       </c>
     </row>
     <row r="225" spans="1:23">
@@ -16403,10 +16403,10 @@
         <v>0.3911972045898438</v>
       </c>
       <c r="V225" t="n">
-        <v>0.5042976140975952</v>
+        <v>0.8806502223014832</v>
       </c>
       <c r="W225" t="n">
-        <v>0.01279170252382755</v>
+        <v>0.2395642548799515</v>
       </c>
     </row>
     <row r="226" spans="1:23">
@@ -16474,10 +16474,10 @@
         <v>0.3935401439666748</v>
       </c>
       <c r="V226" t="n">
-        <v>0.417630136013031</v>
+        <v>0.515804648399353</v>
       </c>
       <c r="W226" t="n">
-        <v>0.000580327701754868</v>
+        <v>0.01494860928505659</v>
       </c>
     </row>
     <row r="227" spans="1:23">
@@ -16545,10 +16545,10 @@
         <v>0.3959310054779053</v>
       </c>
       <c r="V227" t="n">
-        <v>0.5870922207832336</v>
+        <v>0.8782162666320801</v>
       </c>
       <c r="W227" t="n">
-        <v>0.036542609333992</v>
+        <v>0.2325990796089172</v>
       </c>
     </row>
     <row r="228" spans="1:23">
@@ -16616,10 +16616,10 @@
         <v>0.4145870208740234</v>
       </c>
       <c r="V228" t="n">
-        <v>0.4611094295978546</v>
+        <v>0.8698776364326477</v>
       </c>
       <c r="W228" t="n">
-        <v>0.002164334524422884</v>
+        <v>0.2072895467281342</v>
       </c>
     </row>
     <row r="229" spans="1:23">
@@ -16687,10 +16687,10 @@
         <v>0.4043619632720947</v>
       </c>
       <c r="V229" t="n">
-        <v>0.8296811580657959</v>
+        <v>0.4004068672657013</v>
       </c>
       <c r="W229" t="n">
-        <v>0.1808964163064957</v>
+        <v>1.564278500154614e-05</v>
       </c>
     </row>
     <row r="230" spans="1:23">
@@ -16758,10 +16758,10 @@
         <v>0.3962569236755371</v>
       </c>
       <c r="V230" t="n">
-        <v>0.4615108966827393</v>
+        <v>0.5211864113807678</v>
       </c>
       <c r="W230" t="n">
-        <v>0.00425808085128665</v>
+        <v>0.01560737658292055</v>
       </c>
     </row>
     <row r="231" spans="1:23">
@@ -16829,10 +16829,10 @@
         <v>0.3960988521575928</v>
       </c>
       <c r="V231" t="n">
-        <v>0.5051093101501465</v>
+        <v>0.8864597678184509</v>
       </c>
       <c r="W231" t="n">
-        <v>0.01188328023999929</v>
+        <v>0.2404538244009018</v>
       </c>
     </row>
     <row r="232" spans="1:23">
@@ -16900,10 +16900,10 @@
         <v>0.3987271785736084</v>
       </c>
       <c r="V232" t="n">
-        <v>0.4907240867614746</v>
+        <v>0.515776515007019</v>
       </c>
       <c r="W232" t="n">
-        <v>0.008463431149721146</v>
+        <v>0.01370054669678211</v>
       </c>
     </row>
     <row r="233" spans="1:23">
@@ -16971,10 +16971,10 @@
         <v>0.3986289501190186</v>
       </c>
       <c r="V233" t="n">
-        <v>0.5045288801193237</v>
+        <v>0.5319588780403137</v>
       </c>
       <c r="W233" t="n">
-        <v>0.0112147955223918</v>
+        <v>0.01777686923742294</v>
       </c>
     </row>
     <row r="234" spans="1:23">
@@ -17042,10 +17042,10 @@
         <v>0.3996450901031494</v>
       </c>
       <c r="V234" t="n">
-        <v>0.4903903901576996</v>
+        <v>0.3990492522716522</v>
       </c>
       <c r="W234" t="n">
-        <v>0.008234709501266479</v>
+        <v>3.550227347659529e-07</v>
       </c>
     </row>
     <row r="235" spans="1:23">
@@ -17113,10 +17113,10 @@
         <v>0.407642126083374</v>
       </c>
       <c r="V235" t="n">
-        <v>0.35074183344841</v>
+        <v>0.8759440779685974</v>
       </c>
       <c r="W235" t="n">
-        <v>0.003237643279135227</v>
+        <v>0.2193067222833633</v>
       </c>
     </row>
     <row r="236" spans="1:23">
@@ -17184,10 +17184,10 @@
         <v>0.3983259201049805</v>
       </c>
       <c r="V236" t="n">
-        <v>0.6547797918319702</v>
+        <v>0.8864377737045288</v>
       </c>
       <c r="W236" t="n">
-        <v>0.06576858460903168</v>
+        <v>0.2382531762123108</v>
       </c>
     </row>
     <row r="237" spans="1:23">
@@ -17255,10 +17255,10 @@
         <v>0.3964540958404541</v>
       </c>
       <c r="V237" t="n">
-        <v>0.4175451099872589</v>
+        <v>0.3990292847156525</v>
       </c>
       <c r="W237" t="n">
-        <v>0.0004448308900464326</v>
+        <v>6.63159789837664e-06</v>
       </c>
     </row>
     <row r="238" spans="1:23">
@@ -17326,10 +17326,10 @@
         <v>0.3953571319580078</v>
       </c>
       <c r="V238" t="n">
-        <v>0.3718892931938171</v>
+        <v>0.5220281481742859</v>
       </c>
       <c r="W238" t="n">
-        <v>0.0005507394671440125</v>
+        <v>0.01604554615914822</v>
       </c>
     </row>
     <row r="239" spans="1:23">
@@ -17397,10 +17397,10 @@
         <v>0.390984058380127</v>
       </c>
       <c r="V239" t="n">
-        <v>0.5256670713424683</v>
+        <v>0.5257254838943481</v>
       </c>
       <c r="W239" t="n">
-        <v>0.01813951320946217</v>
+        <v>0.01815525256097317</v>
       </c>
     </row>
     <row r="240" spans="1:23">
@@ -17468,10 +17468,10 @@
         <v>0.3856360912322998</v>
       </c>
       <c r="V240" t="n">
-        <v>0.9757455587387085</v>
+        <v>0.868864119052887</v>
       </c>
       <c r="W240" t="n">
-        <v>0.3482291698455811</v>
+        <v>0.2335093319416046</v>
       </c>
     </row>
     <row r="241" spans="1:23">
@@ -17539,10 +17539,10 @@
         <v>0.3936669826507568</v>
       </c>
       <c r="V241" t="n">
-        <v>0.490907609462738</v>
+        <v>0.4003208577632904</v>
       </c>
       <c r="W241" t="n">
-        <v>0.00945573952049017</v>
+        <v>4.427405292517506e-05</v>
       </c>
     </row>
     <row r="242" spans="1:23">
@@ -17610,10 +17610,10 @@
         <v>0.8827300071716309</v>
       </c>
       <c r="V242" t="n">
-        <v>0.6543192863464355</v>
+        <v>0.3990559279918671</v>
       </c>
       <c r="W242" t="n">
-        <v>0.05217145755887032</v>
+        <v>0.2339406162500381</v>
       </c>
     </row>
     <row r="243" spans="1:23">
@@ -17681,10 +17681,10 @@
         <v>0.8892779350280762</v>
       </c>
       <c r="V243" t="n">
-        <v>0.9751924276351929</v>
+        <v>0.4004041850566864</v>
       </c>
       <c r="W243" t="n">
-        <v>0.00738129997625947</v>
+        <v>0.2389975488185883</v>
       </c>
     </row>
     <row r="244" spans="1:23">
@@ -17752,10 +17752,10 @@
         <v>0.8665170669555664</v>
       </c>
       <c r="V244" t="n">
-        <v>0.652911365032196</v>
+        <v>0.39905646443367</v>
       </c>
       <c r="W244" t="n">
-        <v>0.04562739655375481</v>
+        <v>0.2185194194316864</v>
       </c>
     </row>
     <row r="245" spans="1:23">
@@ -17823,10 +17823,10 @@
         <v>0.9148538112640381</v>
       </c>
       <c r="V245" t="n">
-        <v>0.4638742208480835</v>
+        <v>0.868941605091095</v>
       </c>
       <c r="W245" t="n">
-        <v>0.203382596373558</v>
+        <v>0.002107930602505803</v>
       </c>
     </row>
     <row r="246" spans="1:23">
@@ -17894,10 +17894,10 @@
         <v>0.893773078918457</v>
       </c>
       <c r="V246" t="n">
-        <v>0.6533396244049072</v>
+        <v>0.8764140009880066</v>
       </c>
       <c r="W246" t="n">
-        <v>0.05780824646353722</v>
+        <v>0.0003013375971931964</v>
       </c>
     </row>
     <row r="247" spans="1:23">
@@ -17965,10 +17965,10 @@
         <v>0.8801841735839844</v>
       </c>
       <c r="V247" t="n">
-        <v>0.6992233991622925</v>
+        <v>0.5241523385047913</v>
       </c>
       <c r="W247" t="n">
-        <v>0.0327468030154705</v>
+        <v>0.1267586648464203</v>
       </c>
     </row>
     <row r="248" spans="1:23">
@@ -18036,10 +18036,10 @@
         <v>0.8691630363464355</v>
       </c>
       <c r="V248" t="n">
-        <v>0.576347291469574</v>
+        <v>0.5255799293518066</v>
       </c>
       <c r="W248" t="n">
-        <v>0.08574105799198151</v>
+        <v>0.1180493533611298</v>
       </c>
     </row>
     <row r="249" spans="1:23">
@@ -18107,10 +18107,10 @@
         <v>0.9303419589996338</v>
       </c>
       <c r="V249" t="n">
-        <v>0.7080433368682861</v>
+        <v>0.4010737538337708</v>
       </c>
       <c r="W249" t="n">
-        <v>0.0494166761636734</v>
+        <v>0.280124843120575</v>
       </c>
     </row>
     <row r="250" spans="1:23">
@@ -18178,10 +18178,10 @@
         <v>0.8699700832366943</v>
       </c>
       <c r="V250" t="n">
-        <v>0.417652815580368</v>
+        <v>0.5142846703529358</v>
       </c>
       <c r="W250" t="n">
-        <v>0.204590916633606</v>
+        <v>0.1265121102333069</v>
       </c>
     </row>
     <row r="251" spans="1:23">
@@ -18249,10 +18249,10 @@
         <v>0.8855090141296387</v>
       </c>
       <c r="V251" t="n">
-        <v>0.3782425820827484</v>
+        <v>0.4023694396018982</v>
       </c>
       <c r="W251" t="n">
-        <v>0.2573192119598389</v>
+        <v>0.2334238439798355</v>
       </c>
     </row>
     <row r="252" spans="1:23">
@@ -18320,10 +18320,10 @@
         <v>0.8729660511016846</v>
       </c>
       <c r="V252" t="n">
-        <v>0.5251706838607788</v>
+        <v>0.8794410824775696</v>
       </c>
       <c r="W252" t="n">
-        <v>0.1209616139531136</v>
+        <v>4.192603228148073e-05</v>
       </c>
     </row>
     <row r="253" spans="1:23">
@@ -18391,10 +18391,10 @@
         <v>0.9419221878051758</v>
       </c>
       <c r="V253" t="n">
-        <v>0.7080770134925842</v>
+        <v>0.5051839351654053</v>
       </c>
       <c r="W253" t="n">
-        <v>0.05468356609344482</v>
+        <v>0.1907403022050858</v>
       </c>
     </row>
     <row r="254" spans="1:23">
@@ -18462,10 +18462,10 @@
         <v>0.9159348011016846</v>
       </c>
       <c r="V254" t="n">
-        <v>0.802345335483551</v>
+        <v>0.5148732662200928</v>
       </c>
       <c r="W254" t="n">
-        <v>0.01290256716310978</v>
+        <v>0.1608503609895706</v>
       </c>
     </row>
     <row r="255" spans="1:23">
@@ -18533,10 +18533,10 @@
         <v>0.8725790977478027</v>
       </c>
       <c r="V255" t="n">
-        <v>0.5244113802909851</v>
+        <v>0.5162168741226196</v>
       </c>
       <c r="W255" t="n">
-        <v>0.1212207600474358</v>
+        <v>0.1269940286874771</v>
       </c>
     </row>
     <row r="256" spans="1:23">
@@ -18604,10 +18604,10 @@
         <v>0.8752100467681885</v>
       </c>
       <c r="V256" t="n">
-        <v>0.5030666589736938</v>
+        <v>0.8680171370506287</v>
       </c>
       <c r="W256" t="n">
-        <v>0.1384907066822052</v>
+        <v>5.173794852453284e-05</v>
       </c>
     </row>
     <row r="257" spans="1:23">
@@ -18675,10 +18675,10 @@
         <v>0.8813071250915527</v>
       </c>
       <c r="V257" t="n">
-        <v>0.4175510704517365</v>
+        <v>0.8700249791145325</v>
       </c>
       <c r="W257" t="n">
-        <v>0.2150696814060211</v>
+        <v>0.000127286824863404</v>
       </c>
     </row>
     <row r="258" spans="1:23">
@@ -18746,10 +18746,10 @@
         <v>0.8681139945983887</v>
       </c>
       <c r="V258" t="n">
-        <v>0.8004976511001587</v>
+        <v>0.5180355310440063</v>
       </c>
       <c r="W258" t="n">
-        <v>0.004571970086544752</v>
+        <v>0.1225549280643463</v>
       </c>
     </row>
     <row r="259" spans="1:23">
@@ -18817,10 +18817,10 @@
         <v>0.877877950668335</v>
       </c>
       <c r="V259" t="n">
-        <v>0.6535240411758423</v>
+        <v>0.5079886317253113</v>
       </c>
       <c r="W259" t="n">
-        <v>0.05033467710018158</v>
+        <v>0.1368181109428406</v>
       </c>
     </row>
     <row r="260" spans="1:23">
@@ -18888,10 +18888,10 @@
         <v>0.8620028495788574</v>
       </c>
       <c r="V260" t="n">
-        <v>0.8045668601989746</v>
+        <v>0.5153595209121704</v>
       </c>
       <c r="W260" t="n">
-        <v>0.003298892872408032</v>
+        <v>0.1201616004109383</v>
       </c>
     </row>
     <row r="261" spans="1:23">
@@ -18959,10 +18959,10 @@
         <v>0.8686950206756592</v>
       </c>
       <c r="V261" t="n">
-        <v>0.4175129532814026</v>
+        <v>0.5663946270942688</v>
       </c>
       <c r="W261" t="n">
-        <v>0.2035652548074722</v>
+        <v>0.09138552844524384</v>
       </c>
     </row>
     <row r="262" spans="1:23">
@@ -19030,10 +19030,10 @@
         <v>0.5413699150085449</v>
       </c>
       <c r="V262" t="n">
-        <v>0.6535565853118896</v>
+        <v>0.5196726322174072</v>
       </c>
       <c r="W262" t="n">
-        <v>0.01258584856987</v>
+        <v>0.0004707720945589244</v>
       </c>
     </row>
     <row r="263" spans="1:23">
@@ -19101,10 +19101,10 @@
         <v>0.5425310134887695</v>
       </c>
       <c r="V263" t="n">
-        <v>0.5761433839797974</v>
+        <v>0.8629031777381897</v>
       </c>
       <c r="W263" t="n">
-        <v>0.001129791489802301</v>
+        <v>0.1026383265852928</v>
       </c>
     </row>
     <row r="264" spans="1:23">
@@ -19172,10 +19172,10 @@
         <v>0.523975133895874</v>
       </c>
       <c r="V264" t="n">
-        <v>0.4176412224769592</v>
+        <v>0.5283457636833191</v>
       </c>
       <c r="W264" t="n">
-        <v>0.01130690053105354</v>
+        <v>1.910240462166257e-05</v>
       </c>
     </row>
     <row r="265" spans="1:23">
@@ -19243,10 +19243,10 @@
         <v>0.5276370048522949</v>
       </c>
       <c r="V265" t="n">
-        <v>0.8004674911499023</v>
+        <v>0.3992001116275787</v>
       </c>
       <c r="W265" t="n">
-        <v>0.07443647086620331</v>
+        <v>0.01649603620171547</v>
       </c>
     </row>
     <row r="266" spans="1:23">
@@ -19314,10 +19314,10 @@
         <v>0.5303268432617188</v>
       </c>
       <c r="V266" t="n">
-        <v>0.9752137064933777</v>
+        <v>0.4023934602737427</v>
       </c>
       <c r="W266" t="n">
-        <v>0.1979243159294128</v>
+        <v>0.01636695116758347</v>
       </c>
     </row>
     <row r="267" spans="1:23">
@@ -19385,10 +19385,10 @@
         <v>0.5253438949584961</v>
       </c>
       <c r="V267" t="n">
-        <v>0.8296502828598022</v>
+        <v>0.880864679813385</v>
       </c>
       <c r="W267" t="n">
-        <v>0.09260237962007523</v>
+        <v>0.1263950318098068</v>
       </c>
     </row>
     <row r="268" spans="1:23">
@@ -19456,10 +19456,10 @@
         <v>0.5230131149291992</v>
       </c>
       <c r="V268" t="n">
-        <v>0.5046958923339844</v>
+        <v>0.3999055325984955</v>
       </c>
       <c r="W268" t="n">
-        <v>0.0003355206572450697</v>
+        <v>0.01515547651797533</v>
       </c>
     </row>
     <row r="269" spans="1:23">
@@ -19527,10 +19527,10 @@
         <v>0.5263299942016602</v>
       </c>
       <c r="V269" t="n">
-        <v>0.802417516708374</v>
+        <v>0.4004022479057312</v>
       </c>
       <c r="W269" t="n">
-        <v>0.07622431963682175</v>
+        <v>0.01585779711604118</v>
       </c>
     </row>
     <row r="270" spans="1:23">
@@ -19598,10 +19598,10 @@
         <v>0.5215909481048584</v>
       </c>
       <c r="V270" t="n">
-        <v>0.6862813830375671</v>
+        <v>0.8745142817497253</v>
       </c>
       <c r="W270" t="n">
-        <v>0.02712293900549412</v>
+        <v>0.124554879963398</v>
       </c>
     </row>
     <row r="271" spans="1:23">
@@ -19669,10 +19669,10 @@
         <v>0.5684051513671875</v>
       </c>
       <c r="V271" t="n">
-        <v>0.9755939245223999</v>
+        <v>0.8875402808189392</v>
       </c>
       <c r="W271" t="n">
-        <v>0.1658027023077011</v>
+        <v>0.101847231388092</v>
       </c>
     </row>
     <row r="272" spans="1:23">
@@ -19740,10 +19740,10 @@
         <v>0.5313382148742676</v>
       </c>
       <c r="V272" t="n">
-        <v>0.4614622294902802</v>
+        <v>0.8768439888954163</v>
       </c>
       <c r="W272" t="n">
-        <v>0.004882653243839741</v>
+        <v>0.1193742379546165</v>
       </c>
     </row>
     <row r="273" spans="1:23">
@@ -19811,10 +19811,10 @@
         <v>0.5239222049713135</v>
       </c>
       <c r="V273" t="n">
-        <v>0.708076536655426</v>
+        <v>0.8680393099784851</v>
       </c>
       <c r="W273" t="n">
-        <v>0.03391281887888908</v>
+        <v>0.1184165850281715</v>
       </c>
     </row>
     <row r="274" spans="1:23">
@@ -19882,10 +19882,10 @@
         <v>0.5281331539154053</v>
       </c>
       <c r="V274" t="n">
-        <v>0.4903536438941956</v>
+        <v>0.3998254239559174</v>
       </c>
       <c r="W274" t="n">
-        <v>0.001427291426807642</v>
+        <v>0.01646287366747856</v>
       </c>
     </row>
     <row r="275" spans="1:23">
@@ -19953,10 +19953,10 @@
         <v>0.5204050540924072</v>
       </c>
       <c r="V275" t="n">
-        <v>0.4176348447799683</v>
+        <v>0.8678500056266785</v>
       </c>
       <c r="W275" t="n">
-        <v>0.01056171581149101</v>
+        <v>0.1207179948687553</v>
       </c>
     </row>
     <row r="276" spans="1:23">
@@ -20024,10 +20024,10 @@
         <v>0.5621039867401123</v>
       </c>
       <c r="V276" t="n">
-        <v>0.5263315439224243</v>
+        <v>0.8661187887191772</v>
       </c>
       <c r="W276" t="n">
-        <v>0.001279667718335986</v>
+        <v>0.09242499619722366</v>
       </c>
     </row>
     <row r="277" spans="1:23">
@@ -20095,10 +20095,10 @@
         <v>0.5275850296020508</v>
       </c>
       <c r="V277" t="n">
-        <v>0.8015877604484558</v>
+        <v>0.8669164776802063</v>
       </c>
       <c r="W277" t="n">
-        <v>0.07507749646902084</v>
+        <v>0.1151458323001862</v>
       </c>
     </row>
     <row r="278" spans="1:23">
@@ -20166,10 +20166,10 @@
         <v>0.5216319561004639</v>
       </c>
       <c r="V278" t="n">
-        <v>0.3783526420593262</v>
+        <v>0.8874425292015076</v>
       </c>
       <c r="W278" t="n">
-        <v>0.02052896097302437</v>
+        <v>0.1338173747062683</v>
       </c>
     </row>
     <row r="279" spans="1:23">
@@ -20237,10 +20237,10 @@
         <v>0.5257248878479004</v>
       </c>
       <c r="V279" t="n">
-        <v>0.3778701424598694</v>
+        <v>0.4011013209819794</v>
       </c>
       <c r="W279" t="n">
-        <v>0.02186102606356144</v>
+        <v>0.0155310332775116</v>
       </c>
     </row>
     <row r="280" spans="1:23">
@@ -20308,10 +20308,10 @@
         <v>0.5235288143157959</v>
       </c>
       <c r="V280" t="n">
-        <v>0.3507571518421173</v>
+        <v>0.4003767371177673</v>
       </c>
       <c r="W280" t="n">
-        <v>0.02985004708170891</v>
+        <v>0.01516643445938826</v>
       </c>
     </row>
     <row r="281" spans="1:23">
@@ -20379,10 +20379,10 @@
         <v>0.5267870426177979</v>
       </c>
       <c r="V281" t="n">
-        <v>0.417632520198822</v>
+        <v>0.3992064595222473</v>
       </c>
       <c r="W281" t="n">
-        <v>0.01191470958292484</v>
+        <v>0.01627680473029613</v>
       </c>
     </row>
     <row r="282" spans="1:23">
@@ -20450,10 +20450,10 @@
         <v>0.4285361766815186</v>
       </c>
       <c r="V282" t="n">
-        <v>0.3470315337181091</v>
+        <v>0.5214591026306152</v>
       </c>
       <c r="W282" t="n">
-        <v>0.006643007043749094</v>
+        <v>0.008634669706225395</v>
       </c>
     </row>
     <row r="283" spans="1:23">
@@ -20521,10 +20521,10 @@
         <v>0.4023911952972412</v>
       </c>
       <c r="V283" t="n">
-        <v>0.8020263910293579</v>
+        <v>0.5455396771430969</v>
       </c>
       <c r="W283" t="n">
-        <v>0.1597082912921906</v>
+        <v>0.02049148827791214</v>
       </c>
     </row>
     <row r="284" spans="1:23">
@@ -20592,10 +20592,10 @@
         <v>0.4054138660430908</v>
       </c>
       <c r="V284" t="n">
-        <v>0.8022168874740601</v>
+        <v>0.8711079955101013</v>
       </c>
       <c r="W284" t="n">
-        <v>0.1574526429176331</v>
+        <v>0.2168710231781006</v>
       </c>
     </row>
     <row r="285" spans="1:23">
@@ -20663,10 +20663,10 @@
         <v>0.4016778469085693</v>
       </c>
       <c r="V285" t="n">
-        <v>0.5906542539596558</v>
+        <v>0.8654841184616089</v>
       </c>
       <c r="W285" t="n">
-        <v>0.03571208193898201</v>
+        <v>0.2151162624359131</v>
       </c>
     </row>
     <row r="286" spans="1:23">
@@ -20734,10 +20734,10 @@
         <v>0.4031708240509033</v>
       </c>
       <c r="V286" t="n">
-        <v>0.6538257002830505</v>
+        <v>0.5161385536193848</v>
       </c>
       <c r="W286" t="n">
-        <v>0.06282787024974823</v>
+        <v>0.01276170834898949</v>
       </c>
     </row>
     <row r="287" spans="1:23">
@@ -20805,10 +20805,10 @@
         <v>0.3992259502410889</v>
       </c>
       <c r="V287" t="n">
-        <v>0.8022716045379639</v>
+        <v>0.8748699426651001</v>
       </c>
       <c r="W287" t="n">
-        <v>0.1624457985162735</v>
+        <v>0.2262372076511383</v>
       </c>
     </row>
     <row r="288" spans="1:23">
@@ -20876,10 +20876,10 @@
         <v>0.4039618968963623</v>
       </c>
       <c r="V288" t="n">
-        <v>0.4175667762756348</v>
+        <v>0.5272952318191528</v>
       </c>
       <c r="W288" t="n">
-        <v>0.0001850927365012467</v>
+        <v>0.01521111186593771</v>
       </c>
     </row>
     <row r="289" spans="1:23">
@@ -20947,10 +20947,10 @@
         <v>0.4219129085540771</v>
       </c>
       <c r="V289" t="n">
-        <v>0.6863111853599548</v>
+        <v>0.5243210196495056</v>
       </c>
       <c r="W289" t="n">
-        <v>0.06990645080804825</v>
+        <v>0.01048742141574621</v>
       </c>
     </row>
     <row r="290" spans="1:23">
@@ -21018,10 +21018,10 @@
         <v>0.3925161361694336</v>
       </c>
       <c r="V290" t="n">
-        <v>0.6529941558837891</v>
+        <v>0.5214621424674988</v>
       </c>
       <c r="W290" t="n">
-        <v>0.067848801612854</v>
+        <v>0.01662707328796387</v>
       </c>
     </row>
     <row r="291" spans="1:23">
@@ -21089,10 +21089,10 @@
         <v>0.3978149890899658</v>
       </c>
       <c r="V291" t="n">
-        <v>0.5826015472412109</v>
+        <v>0.4004425406455994</v>
       </c>
       <c r="W291" t="n">
-        <v>0.03414607048034668</v>
+        <v>6.904027031851001e-06</v>
       </c>
     </row>
     <row r="292" spans="1:23">
@@ -21160,10 +21160,10 @@
         <v>0.400439977645874</v>
       </c>
       <c r="V292" t="n">
-        <v>0.4176522493362427</v>
+        <v>0.3999166190624237</v>
       </c>
       <c r="W292" t="n">
-        <v>0.0002962622966151685</v>
+        <v>2.739042201937991e-07</v>
       </c>
     </row>
     <row r="293" spans="1:23">
@@ -21231,10 +21231,10 @@
         <v>0.393718957901001</v>
       </c>
       <c r="V293" t="n">
-        <v>0.4176340699195862</v>
+        <v>0.4004185497760773</v>
       </c>
       <c r="W293" t="n">
-        <v>0.0005719325854443014</v>
+        <v>4.488453123485669e-05</v>
       </c>
     </row>
     <row r="294" spans="1:23">
@@ -21302,10 +21302,10 @@
         <v>0.4443869590759277</v>
       </c>
       <c r="V294" t="n">
-        <v>0.8337250947952271</v>
+        <v>0.4025092422962189</v>
       </c>
       <c r="W294" t="n">
-        <v>0.1515841782093048</v>
+        <v>0.001753743155859411</v>
       </c>
     </row>
     <row r="295" spans="1:23">
@@ -21373,10 +21373,10 @@
         <v>0.3972890377044678</v>
       </c>
       <c r="V295" t="n">
-        <v>0.3717378973960876</v>
+        <v>0.5139290690422058</v>
       </c>
       <c r="W295" t="n">
-        <v>0.000652860791888088</v>
+        <v>0.01360489707440138</v>
       </c>
     </row>
     <row r="296" spans="1:23">
@@ -21444,10 +21444,10 @@
         <v>0.4022591114044189</v>
       </c>
       <c r="V296" t="n">
-        <v>0.5247950553894043</v>
+        <v>0.5160521864891052</v>
       </c>
       <c r="W296" t="n">
-        <v>0.01501505728811026</v>
+        <v>0.01294886413961649</v>
       </c>
     </row>
     <row r="297" spans="1:23">
@@ -21515,10 +21515,10 @@
         <v>0.3985941410064697</v>
       </c>
       <c r="V297" t="n">
-        <v>0.8004262447357178</v>
+        <v>0.866741955280304</v>
       </c>
       <c r="W297" t="n">
-        <v>0.161469042301178</v>
+        <v>0.2191623747348785</v>
       </c>
     </row>
     <row r="298" spans="1:23">
@@ -21586,10 +21586,10 @@
         <v>0.3993470668792725</v>
       </c>
       <c r="V298" t="n">
-        <v>0.6539149880409241</v>
+        <v>0.4027069509029388</v>
       </c>
       <c r="W298" t="n">
-        <v>0.06480482965707779</v>
+        <v>1.128882104239892e-05</v>
       </c>
     </row>
     <row r="299" spans="1:23">
@@ -21657,10 +21657,10 @@
         <v>0.3984549045562744</v>
       </c>
       <c r="V299" t="n">
-        <v>0.8027225732803345</v>
+        <v>0.3990360796451569</v>
       </c>
       <c r="W299" t="n">
-        <v>0.1634323447942734</v>
+        <v>3.377644759439136e-07</v>
       </c>
     </row>
     <row r="300" spans="1:23">
@@ -21728,10 +21728,10 @@
         <v>0.4491739273071289</v>
       </c>
       <c r="V300" t="n">
-        <v>0.8341045379638672</v>
+        <v>0.3992070257663727</v>
       </c>
       <c r="W300" t="n">
-        <v>0.1481715738773346</v>
+        <v>0.00249669118784368</v>
       </c>
     </row>
     <row r="301" spans="1:23">
@@ -21799,10 +21799,10 @@
         <v>0.4002280235290527</v>
       </c>
       <c r="V301" t="n">
-        <v>0.5044592022895813</v>
+        <v>0.8739768862724304</v>
       </c>
       <c r="W301" t="n">
-        <v>0.01086413860321045</v>
+        <v>0.2244379818439484</v>
       </c>
     </row>
     <row r="302" spans="1:23">
